--- a/Log/辅助编码.xlsx
+++ b/Log/辅助编码.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24540F28-C6AA-4D65-9D6F-2831A082E823}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068DD17-72F1-4B1F-933F-544B1FF5BB2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="9552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="392">
   <si>
     <t>DistributList</t>
   </si>
@@ -4217,10 +4217,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T209"/>
+  <dimension ref="A1:T207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4444,11 +4444,11 @@
       </c>
       <c r="O5" t="str">
         <f>CONCATENATE(N37,N38,N39,N40,N41,N42,N43,N44)</f>
-        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商编号',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商编号',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="4"/>
-        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商编号',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商编号',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="O11" t="str">
         <f>CONCATENATE(N81,N82,N83,N84,N85,N86,N87,N88,N89,N90)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4730,11 +4730,11 @@
       </c>
       <c r="O12" t="str">
         <f>CONCATENATE(N92,N93,N94,N95,N96,N97,N98,N99,N100,N101)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','仓库编号',440,10,510,35),(5,'combo','',520,10,620,120),(6,'bt','查询',640,10,720,35),(7,'bt','新增',740,10,820,35),(8,'bt','导出',840,10,920,35),(9,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -4743,11 +4743,11 @@
       </c>
       <c r="O13" t="str">
         <f>CONCATENATE(N103,N104,N105,N106,N107,N108,N109)</f>
-        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','导出',540,10,620,35),(6,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','导出',540,10,620,35),(6,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','导出',540,10,620,35),(6,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','导出',540,10,620,35),(6,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -4789,11 +4789,11 @@
       </c>
       <c r="O14" t="str">
         <f>CONCATENATE(N111,N112,N113,N114,N115,N116,N117,N118)</f>
-        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','修改',540,10,620,35),(6,'bt','确定',640,10,720,35),(7,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','修改',540,10,620,35),(6,'bt','确定',640,10,720,35),(7,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','修改',540,10,620,35),(6,'bt','确定',640,10,720,35),(7,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','修改',540,10,620,35),(6,'bt','确定',640,10,720,35),(7,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4872,11 +4872,11 @@
       </c>
       <c r="O16" t="str">
         <f>CONCATENATE(N121,N122,N123)</f>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4913,11 +4913,11 @@
       </c>
       <c r="O17" t="str">
         <f>CONCATENATE(N125,N126,N127)</f>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4957,11 +4957,11 @@
       </c>
       <c r="O18" t="str">
         <f>CONCATENATE(N129,N130,N131)</f>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" ref="P18:P27" si="12">CONCATENATE(O18,",")</f>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4997,11 +4997,11 @@
       </c>
       <c r="O19" t="str">
         <f>CONCATENATE(N133,N134,N135)</f>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -5041,11 +5041,11 @@
       </c>
       <c r="O20" t="str">
         <f>CONCATENATE(N137,N138,N139)</f>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -5161,11 +5161,11 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O24" t="str">
         <f>CONCATENATE(N165,N166,N167,N168,N169)</f>
-        <v>"(0,'text','客户编号',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','客户编号',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,500);"</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','客户编号',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','客户编号',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,500);",</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -5204,11 +5204,11 @@
       </c>
       <c r="O25" t="str">
         <f>CONCATENATE(N171,N172,N173,N174,N175)</f>
-        <v>"(0,'text','供应商编号',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','供应商编号',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','供应商编号',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,600);",</v>
+        <v>"(0,'text','供应商编号',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -5244,12 +5244,12 @@
         <v>(1,'time','',100,10,250,35),</v>
       </c>
       <c r="O26" t="str">
-        <f>CONCATENATE(N177,N178,N179,N180,N181,N182,N183,N184,N185,N186)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'bt','删除',750,10,830,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);"</v>
+        <f>CONCATENATE(N177,N178,N179,N180,N181,N182,N183,N184,N185)</f>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'ls','',0,50,1120,500),(8,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'bt','删除',750,10,830,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'ls','',0,50,1120,500),(8,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -5285,12 +5285,12 @@
         <v>(2,'text','—',260,10,270,35),</v>
       </c>
       <c r="O27" t="str">
-        <f>CONCATENATE(N188,N189,N190,N191,N192,N193,N194,N195,N196,N197)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'bt','删除',750,10,830,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);"</v>
+        <f>CONCATENATE(N187,N188,N189,N190,N191,N192,N193,N194,N195)</f>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'ls','',0,50,1120,500),(8,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'bt','删除',750,10,830,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'ls','',0,50,1120,500),(8,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -5358,12 +5358,12 @@
         <v>(4,'text','供应商编号',440,10,530,30),</v>
       </c>
       <c r="O29" t="str">
-        <f>CONCATENATE(N199,N200,N201,N202,N203,N204,N205,N206,N207,N208)</f>
-        <v>"(0,'text','日期',0,10,30,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','员工名称',390,10,460,30),(5,'combo','',470,10,620,120),(6,'text','操作',630,10,700,30),(7,'combo','',710,10,860,120),(8,'bt','查询',880,10,960,35),(9,'ls','',0,50,1120,600);"</v>
+        <f>CONCATENATE(N197,N198,N199,N200,N201,N202,N203,N204,N205,N206)</f>
+        <v>"(0,'text','日期',0,10,30,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','员工名称',390,10,460,30),(5,'combo','',470,10,620,120),(6,'text','操作',630,10,700,30),(7,'combo','',710,10,860,120),(8,'bt','查询',880,10,960,35),(9,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P29" t="str">
         <f>CONCATENATE(O29)</f>
-        <v>"(0,'text','日期',0,10,30,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','员工名称',390,10,460,30),(5,'combo','',470,10,620,120),(6,'text','操作',630,10,700,30),(7,'combo','',710,10,860,120),(8,'bt','查询',880,10,960,35),(9,'ls','',0,50,1120,600);"</v>
+        <v>"(0,'text','日期',0,10,30,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','员工名称',390,10,460,30),(5,'combo','',470,10,620,120),(6,'text','操作',630,10,700,30),(7,'combo','',710,10,860,120),(8,'bt','查询',880,10,960,35),(9,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -5805,11 +5805,11 @@
         <v>1120</v>
       </c>
       <c r="H44" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N44" t="str">
         <f>CONCATENATE("(",B44,",'",C44,"','",D44,"',",E44,",",F44,",",G44,",",H44,");",L2)</f>
-        <v>(7,'ls','',0,50,1120,600);"</v>
+        <v>(7,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -7144,11 +7144,11 @@
         <v>1120</v>
       </c>
       <c r="H90" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N90" t="str">
         <f>CONCATENATE("(",B90,",'",C90,"','",D90,"',",E90,",",F90,",",G90,",",H90,");",L2)</f>
-        <v>(9,'ls','',0,50,1120,600);"</v>
+        <v>(9,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -7459,11 +7459,11 @@
         <v>1120</v>
       </c>
       <c r="H101" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N101" t="str">
         <f>CONCATENATE("(",B101,",'",C101,"','",D101,"',",E101,",",F101,",",G101,",",H101,");",L2)</f>
-        <v>(9,'ls','',0,50,1120,600);"</v>
+        <v>(9,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -7670,15 +7670,15 @@
       <c r="F109" s="5">
         <v>50</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="5">
         <v>1120</v>
       </c>
-      <c r="H109">
-        <v>600</v>
+      <c r="H109" s="5">
+        <v>520</v>
       </c>
       <c r="N109" t="str">
         <f>CONCATENATE("(",B109,",'",C109,"','",D109,"',",E109,",",F109,",",G109,",",H109,");",L2)</f>
-        <v>(6,'ls','',0,50,1120,600);"</v>
+        <v>(6,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -7920,15 +7920,15 @@
       <c r="F118" s="5">
         <v>50</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="5">
         <v>1120</v>
       </c>
-      <c r="H118">
-        <v>600</v>
+      <c r="H118" s="5">
+        <v>520</v>
       </c>
       <c r="N118" t="str">
         <f>CONCATENATE("(",B118,",'",C118,"','",D118,"',",E118,",",F118,",",G118,",",H118,");",L2)</f>
-        <v>(7,'ls','',0,50,1120,600);"</v>
+        <v>(7,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -8026,11 +8026,11 @@
         <v>1120</v>
       </c>
       <c r="H123" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N123" t="str">
         <f>CONCATENATE("(",B123,",'",C123,"','",D123,"',",E123,",",F123,",",G123,",",H123,");",L2)</f>
-        <v>(2,'ls','',0,50,1120,600);"</v>
+        <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -8123,11 +8123,11 @@
         <v>1120</v>
       </c>
       <c r="H127" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N127" t="str">
         <f>CONCATENATE("(",B127,",'",C127,"','",D127,"',",E127,",",F127,",",G127,",",H127,");",L2)</f>
-        <v>(2,'ls','',0,50,1120,600);"</v>
+        <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -8220,11 +8220,11 @@
         <v>1120</v>
       </c>
       <c r="H131" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N131" t="str">
         <f>CONCATENATE("(",B131,",'",C131,"','",D131,"',",E131,",",F131,",",G131,",",H131,");",L2)</f>
-        <v>(2,'ls','',0,50,1120,600);"</v>
+        <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -8320,11 +8320,11 @@
         <v>1120</v>
       </c>
       <c r="H135" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N135" t="str">
         <f>CONCATENATE("(",B135,",'",C135,"','",D135,"',",E135,",",F135,",",G135,",",H135,");",L2)</f>
-        <v>(2,'ls','',0,50,1120,600);"</v>
+        <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -8420,11 +8420,11 @@
         <v>1120</v>
       </c>
       <c r="H139" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N139" t="str">
         <f>CONCATENATE("(",B139,",'",C139,"','",D139,"',",E139,",",F139,",",G139,",",H139,");",L2)</f>
-        <v>(2,'ls','',0,50,1120,600);"</v>
+        <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -9287,11 +9287,11 @@
         <v>1120</v>
       </c>
       <c r="H169" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N169" t="str">
         <f>CONCATENATE("(",B169,",'",C169,"','",D169,"',",E169,",",F169,",",G169,",",H169,");",L2)</f>
-        <v>(4,'ls','',0,50,1120,600);"</v>
+        <v>(4,'ls','',0,50,1120,500);"</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -9444,11 +9444,11 @@
         <v>1120</v>
       </c>
       <c r="H175" s="5">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N175" t="str">
         <f>CONCATENATE("(",B175,",'",C175,"','",D175,"',",E175,",",F175,",",G175,",",H175,");",L2)</f>
-        <v>(4,'ls','',0,50,1120,600);"</v>
+        <v>(4,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -9471,7 +9471,7 @@
         <v>10</v>
       </c>
       <c r="G177">
-        <f t="shared" ref="G177:G184" si="75">E177+J177</f>
+        <f t="shared" ref="G177:G183" si="75">E177+J177</f>
         <v>80</v>
       </c>
       <c r="H177">
@@ -9496,7 +9496,7 @@
         <v>160</v>
       </c>
       <c r="E178">
-        <f>G177+$K$185</f>
+        <f>G177+$K$184</f>
         <v>100</v>
       </c>
       <c r="F178" s="5">
@@ -9513,7 +9513,7 @@
         <v>150</v>
       </c>
       <c r="N178" t="str">
-        <f t="shared" ref="N178:N184" si="76">CONCATENATE("(",B178,",'",C178,"','",D178,"',",E178,",",F178,",",G178,",",H178,"),")</f>
+        <f t="shared" ref="N178:N183" si="76">CONCATENATE("(",B178,",'",C178,"','",D178,"',",E178,",",F178,",",G178,",",H178,"),")</f>
         <v>(1,'time','',100,10,250,35),</v>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
         <v>168</v>
       </c>
       <c r="E181">
-        <f>G180+$K$185</f>
+        <f>G180+$K$184</f>
         <v>450</v>
       </c>
       <c r="F181" s="5">
@@ -9621,7 +9621,7 @@
         <v>169</v>
       </c>
       <c r="E182">
-        <f>G181+$K$185</f>
+        <f>G181+$K$184</f>
         <v>550</v>
       </c>
       <c r="F182" s="5">
@@ -9653,7 +9653,7 @@
         <v>170</v>
       </c>
       <c r="E183">
-        <f>G182+$K$185</f>
+        <f>G182+$K$184</f>
         <v>650</v>
       </c>
       <c r="F183" s="5">
@@ -9679,31 +9679,26 @@
         <v>7</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E184">
-        <f>G183+$K$185</f>
-        <v>750</v>
+        <v>166</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0</v>
       </c>
       <c r="F184" s="5">
-        <v>10</v>
-      </c>
-      <c r="G184">
-        <f t="shared" si="75"/>
-        <v>830</v>
-      </c>
-      <c r="H184">
-        <v>35</v>
-      </c>
-      <c r="J184">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="G184" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H184" s="5">
+        <v>500</v>
+      </c>
+      <c r="K184">
+        <v>20</v>
       </c>
       <c r="N184" t="str">
-        <f t="shared" si="76"/>
-        <v>(7,'bt','删除',750,10,830,35),</v>
+        <f>CONCATENATE("(",B184,",'",C184,"','",D184,"',",E184,",",F184,",",G184,",",H184,"),")</f>
+        <v>(7,'ls','',0,50,1120,500),</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -9711,209 +9706,214 @@
         <v>8</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>166</v>
+        <v>384</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="E185" s="5">
+        <v>10</v>
+      </c>
+      <c r="F185" s="5">
+        <v>510</v>
+      </c>
+      <c r="G185" s="5">
+        <f>E185+J185</f>
+        <v>160</v>
+      </c>
+      <c r="H185" s="5">
+        <v>530</v>
+      </c>
+      <c r="J185" s="5">
+        <v>150</v>
+      </c>
+      <c r="N185" t="str">
+        <f>CONCATENATE("(",B185,",'",C185,"','",D185,"',",E185,",",F185,",",G185,",",H185,");",L2)</f>
+        <v>(8,'text','金额总计：',10,510,160,530);"</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="5">
         <v>0</v>
       </c>
-      <c r="F185" s="5">
-        <v>50</v>
-      </c>
-      <c r="G185" s="5">
-        <v>1120</v>
-      </c>
-      <c r="H185" s="5">
-        <v>500</v>
-      </c>
-      <c r="K185">
+      <c r="C187" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+      <c r="F187" s="5">
+        <v>10</v>
+      </c>
+      <c r="G187">
+        <f t="shared" ref="G187:G193" si="77">E187+J187</f>
+        <v>80</v>
+      </c>
+      <c r="H187">
+        <v>30</v>
+      </c>
+      <c r="J187">
+        <v>70</v>
+      </c>
+      <c r="N187" t="str">
+        <f>CONCATENATE(L2,"(",B187,",'",C187,"','",D187,"',",E187,",",F187,",",G187,",",H187,"),")</f>
+        <v>"(0,'text','单据日期',10,10,80,30),</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>20</v>
       </c>
-      <c r="N185" t="str">
-        <f>CONCATENATE("(",B185,",'",C185,"','",D185,"',",E185,",",F185,",",G185,",",H185,"),")</f>
-        <v>(8,'ls','',0,50,1120,500),</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B186" s="5">
-        <v>9</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E186" s="5">
-        <v>10</v>
-      </c>
-      <c r="F186" s="5">
-        <v>510</v>
-      </c>
-      <c r="G186" s="5">
-        <f>E186+J186</f>
+      <c r="B188" s="5">
+        <v>1</v>
+      </c>
+      <c r="C188" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H186" s="5">
-        <v>530</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E188">
+        <f>G187+$K$184</f>
+        <v>100</v>
+      </c>
+      <c r="F188" s="5">
+        <v>10</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="77"/>
+        <v>250</v>
+      </c>
+      <c r="H188">
+        <v>35</v>
+      </c>
+      <c r="J188">
         <v>150</v>
       </c>
-      <c r="N186" t="str">
-        <f>CONCATENATE("(",B186,",'",C186,"','",D186,"',",E186,",",F186,",",G186,",",H186,");",L2)</f>
-        <v>(9,'text','金额总计：',10,510,160,530);"</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>207</v>
-      </c>
-      <c r="B188" s="5">
-        <v>0</v>
-      </c>
-      <c r="C188" s="5" t="s">
+      <c r="N188" t="str">
+        <f t="shared" ref="N188:N193" si="78">CONCATENATE("(",B188,",'",C188,"','",D188,"',",E188,",",F188,",",G188,",",H188,"),")</f>
+        <v>(1,'time','',100,10,250,35),</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B189" s="5">
+        <v>2</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D188" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E188">
-        <v>10</v>
-      </c>
-      <c r="F188" s="5">
-        <v>10</v>
-      </c>
-      <c r="G188">
-        <f t="shared" ref="G188:G195" si="77">E188+J188</f>
-        <v>80</v>
-      </c>
-      <c r="H188">
-        <v>30</v>
-      </c>
-      <c r="J188">
-        <v>70</v>
-      </c>
-      <c r="N188" t="str">
-        <f>CONCATENATE(L2,"(",B188,",'",C188,"','",D188,"',",E188,",",F188,",",G188,",",H188,"),")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>20</v>
-      </c>
-      <c r="B189" s="5">
-        <v>1</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>160</v>
+      <c r="D189" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E189">
-        <f>G188+$K$185</f>
-        <v>100</v>
+        <f>G188+10</f>
+        <v>260</v>
       </c>
       <c r="F189" s="5">
         <v>10</v>
       </c>
       <c r="G189">
         <f t="shared" si="77"/>
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H189">
         <v>35</v>
       </c>
       <c r="J189">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N189" t="str">
-        <f t="shared" ref="N189:N195" si="78">CONCATENATE("(",B189,",'",C189,"','",D189,"',",E189,",",F189,",",G189,",",H189,"),")</f>
-        <v>(1,'time','',100,10,250,35),</v>
+        <f t="shared" si="78"/>
+        <v>(2,'text','—',260,10,270,35),</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B190" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="E190">
         <f>G189+10</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F190" s="5">
         <v>10</v>
       </c>
       <c r="G190">
         <f t="shared" si="77"/>
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="H190">
         <v>35</v>
       </c>
       <c r="J190">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N190" t="str">
         <f t="shared" si="78"/>
-        <v>(2,'text','—',260,10,270,35),</v>
+        <v>(3,'time','',280,10,430,35),</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B191" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E191">
-        <f>G190+10</f>
-        <v>280</v>
+        <f>G190+$K$184</f>
+        <v>450</v>
       </c>
       <c r="F191" s="5">
         <v>10</v>
       </c>
       <c r="G191">
         <f t="shared" si="77"/>
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="H191">
         <v>35</v>
       </c>
       <c r="J191">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N191" t="str">
         <f t="shared" si="78"/>
-        <v>(3,'time','',280,10,430,35),</v>
+        <v>(4,'bt','查询',450,10,530,35),</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B192" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E192">
-        <f>G191+$K$185</f>
-        <v>450</v>
+        <f>G191+$K$184</f>
+        <v>550</v>
       </c>
       <c r="F192" s="5">
         <v>10</v>
       </c>
       <c r="G192">
         <f t="shared" si="77"/>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="H192">
         <v>35</v>
@@ -9923,29 +9923,29 @@
       </c>
       <c r="N192" t="str">
         <f t="shared" si="78"/>
-        <v>(4,'bt','查询',450,10,530,35),</v>
+        <v>(5,'bt','新增',550,10,630,35),</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E193">
-        <f>G192+$K$185</f>
-        <v>550</v>
+        <f>G192+$K$184</f>
+        <v>650</v>
       </c>
       <c r="F193" s="5">
         <v>10</v>
       </c>
       <c r="G193">
         <f t="shared" si="77"/>
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="H193">
         <v>35</v>
@@ -9955,188 +9955,185 @@
       </c>
       <c r="N193" t="str">
         <f t="shared" si="78"/>
-        <v>(5,'bt','新增',550,10,630,35),</v>
+        <v>(6,'bt','导出',650,10,730,35),</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194">
-        <f>G193+$K$185</f>
-        <v>650</v>
+        <v>166</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0</v>
       </c>
       <c r="F194" s="5">
-        <v>10</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="77"/>
-        <v>730</v>
-      </c>
-      <c r="H194">
-        <v>35</v>
-      </c>
-      <c r="J194">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="G194" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H194" s="5">
+        <v>500</v>
+      </c>
+      <c r="K194">
+        <v>20</v>
       </c>
       <c r="N194" t="str">
-        <f t="shared" si="78"/>
-        <v>(6,'bt','导出',650,10,730,35),</v>
+        <f>CONCATENATE("(",B194,",'",C194,"','",D194,"',",E194,",",F194,",",G194,",",H194,"),")</f>
+        <v>(7,'ls','',0,50,1120,500),</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>165</v>
+        <v>384</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E195">
-        <f>G194+$K$185</f>
-        <v>750</v>
+        <v>385</v>
+      </c>
+      <c r="E195" s="5">
+        <v>10</v>
       </c>
       <c r="F195" s="5">
-        <v>10</v>
-      </c>
-      <c r="G195">
-        <f t="shared" si="77"/>
-        <v>830</v>
-      </c>
-      <c r="H195">
+        <v>510</v>
+      </c>
+      <c r="G195" s="5">
+        <f>E195+J195</f>
+        <v>160</v>
+      </c>
+      <c r="H195" s="5">
+        <v>530</v>
+      </c>
+      <c r="J195" s="5">
+        <v>150</v>
+      </c>
+      <c r="N195" t="str">
+        <f>CONCATENATE("(",B195,",'",C195,"','",D195,"',",E195,",",F195,",",G195,",",H195,");",L2)</f>
+        <v>(8,'text','金额总计：',10,510,160,530);"</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>223</v>
+      </c>
+      <c r="B197" s="5">
+        <v>0</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" s="5">
+        <v>10</v>
+      </c>
+      <c r="G197">
+        <f t="shared" ref="G197:G205" si="79">E197+J197</f>
+        <v>30</v>
+      </c>
+      <c r="H197">
+        <v>30</v>
+      </c>
+      <c r="J197">
+        <v>30</v>
+      </c>
+      <c r="K197">
+        <v>20</v>
+      </c>
+      <c r="N197" t="str">
+        <f>CONCATENATE(L2,"(",B197,",'",C197,"','",D197,"',",E197,",",F197,",",G197,",",H197,"),")</f>
+        <v>"(0,'text','日期',0,10,30,30),</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>22</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E198">
+        <f>G197+$K$207</f>
+        <v>50</v>
+      </c>
+      <c r="F198" s="5">
+        <v>10</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="79"/>
+        <v>200</v>
+      </c>
+      <c r="H198">
         <v>35</v>
       </c>
-      <c r="J195">
-        <v>80</v>
-      </c>
-      <c r="N195" t="str">
-        <f t="shared" si="78"/>
-        <v>(7,'bt','删除',750,10,830,35),</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B196" s="5">
-        <v>8</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E196" s="5">
-        <v>0</v>
-      </c>
-      <c r="F196" s="5">
-        <v>50</v>
-      </c>
-      <c r="G196" s="5">
-        <v>1120</v>
-      </c>
-      <c r="H196" s="5">
-        <v>500</v>
-      </c>
-      <c r="K196">
-        <v>20</v>
-      </c>
-      <c r="N196" t="str">
-        <f>CONCATENATE("(",B196,",'",C196,"','",D196,"',",E196,",",F196,",",G196,",",H196,"),")</f>
-        <v>(8,'ls','',0,50,1120,500),</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B197" s="5">
-        <v>9</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E197" s="5">
-        <v>10</v>
-      </c>
-      <c r="F197" s="5">
-        <v>510</v>
-      </c>
-      <c r="G197" s="5">
-        <f>E197+J197</f>
-        <v>160</v>
-      </c>
-      <c r="H197" s="5">
-        <v>530</v>
-      </c>
-      <c r="J197" s="5">
+      <c r="J198">
         <v>150</v>
       </c>
-      <c r="N197" t="str">
-        <f>CONCATENATE("(",B197,",'",C197,"','",D197,"',",E197,",",F197,",",G197,",",H197,");",L2)</f>
-        <v>(9,'text','金额总计：',10,510,160,530);"</v>
+      <c r="N198" t="str">
+        <f t="shared" ref="N198:N205" si="80">CONCATENATE("(",B198,",'",C198,"','",D198,"',",E198,",",F198,",",G198,",",H198,"),")</f>
+        <v>(1,'time','',50,10,200,35),</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>223</v>
-      </c>
       <c r="B199" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <f>G198+10</f>
+        <v>210</v>
       </c>
       <c r="F199" s="5">
         <v>10</v>
       </c>
       <c r="G199">
-        <f t="shared" ref="G199:G207" si="79">E199+J199</f>
-        <v>30</v>
+        <f t="shared" si="79"/>
+        <v>220</v>
       </c>
       <c r="H199">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J199">
-        <v>30</v>
-      </c>
-      <c r="K199">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N199" t="str">
-        <f>CONCATENATE(L2,"(",B199,",'",C199,"','",D199,"',",E199,",",F199,",",G199,",",H199,"),")</f>
-        <v>"(0,'text','日期',0,10,30,30),</v>
+        <f t="shared" si="80"/>
+        <v>(2,'text','—',210,10,220,35),</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>22</v>
-      </c>
       <c r="B200" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E200">
-        <f>G199+$K$209</f>
-        <v>50</v>
+        <f>G199+10</f>
+        <v>230</v>
       </c>
       <c r="F200" s="5">
         <v>10</v>
       </c>
       <c r="G200">
         <f t="shared" si="79"/>
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="H200">
         <v>35</v>
@@ -10145,91 +10142,94 @@
         <v>150</v>
       </c>
       <c r="N200" t="str">
-        <f t="shared" ref="N200:N207" si="80">CONCATENATE("(",B200,",'",C200,"','",D200,"',",E200,",",F200,",",G200,",",H200,"),")</f>
-        <v>(1,'time','',50,10,200,35),</v>
+        <f t="shared" si="80"/>
+        <v>(3,'time','',230,10,380,35),</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B201" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="E201">
-        <f>G200+10</f>
-        <v>210</v>
+        <f t="shared" ref="E201:E204" si="81">G200+10</f>
+        <v>390</v>
       </c>
       <c r="F201" s="5">
         <v>10</v>
       </c>
       <c r="G201">
         <f t="shared" si="79"/>
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="H201">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J201">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="K201">
+        <v>20</v>
       </c>
       <c r="N201" t="str">
-        <f t="shared" si="80"/>
-        <v>(2,'text','—',210,10,220,35),</v>
+        <f t="shared" ref="N201:N202" si="82">CONCATENATE("(",B201,",'",C201,"','",D201,"',",E201,",",F201,",",G201,",",H201,"),")</f>
+        <v>(4,'text','员工名称',390,10,460,30),</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B202" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E202">
-        <f>G201+10</f>
-        <v>230</v>
+        <f t="shared" si="81"/>
+        <v>470</v>
       </c>
       <c r="F202" s="5">
         <v>10</v>
       </c>
       <c r="G202">
         <f t="shared" si="79"/>
-        <v>380</v>
-      </c>
-      <c r="H202">
-        <v>35</v>
+        <v>620</v>
+      </c>
+      <c r="H202" s="5">
+        <v>120</v>
       </c>
       <c r="J202">
         <v>150</v>
       </c>
       <c r="N202" t="str">
-        <f t="shared" si="80"/>
-        <v>(3,'time','',230,10,380,35),</v>
+        <f t="shared" si="82"/>
+        <v>(5,'combo','',470,10,620,120),</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E203">
-        <f t="shared" ref="E203:E206" si="81">G202+10</f>
-        <v>390</v>
+        <f t="shared" si="81"/>
+        <v>630</v>
       </c>
       <c r="F203" s="5">
         <v>10</v>
       </c>
       <c r="G203">
         <f t="shared" si="79"/>
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="H203">
         <v>30</v>
@@ -10237,31 +10237,28 @@
       <c r="J203">
         <v>70</v>
       </c>
-      <c r="K203">
-        <v>20</v>
-      </c>
       <c r="N203" t="str">
-        <f t="shared" ref="N203:N204" si="82">CONCATENATE("(",B203,",'",C203,"','",D203,"',",E203,",",F203,",",G203,",",H203,"),")</f>
-        <v>(4,'text','员工名称',390,10,460,30),</v>
+        <f t="shared" si="80"/>
+        <v>(6,'text','操作',630,10,700,30),</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B204" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E204">
         <f t="shared" si="81"/>
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="F204" s="5">
         <v>10</v>
       </c>
       <c r="G204">
         <f t="shared" si="79"/>
-        <v>620</v>
+        <v>860</v>
       </c>
       <c r="H204" s="5">
         <v>120</v>
@@ -10270,129 +10267,68 @@
         <v>150</v>
       </c>
       <c r="N204" t="str">
-        <f t="shared" si="82"/>
-        <v>(5,'combo','',470,10,620,120),</v>
+        <f t="shared" si="80"/>
+        <v>(7,'combo','',710,10,860,120),</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B205" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>391</v>
+        <v>168</v>
       </c>
       <c r="E205">
-        <f t="shared" si="81"/>
-        <v>630</v>
+        <f>G204+$K$207</f>
+        <v>880</v>
       </c>
       <c r="F205" s="5">
         <v>10</v>
       </c>
       <c r="G205">
         <f t="shared" si="79"/>
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="H205">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J205">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N205" t="str">
         <f t="shared" si="80"/>
-        <v>(6,'text','操作',630,10,700,30),</v>
+        <v>(8,'bt','查询',880,10,960,35),</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E206">
-        <f t="shared" si="81"/>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="F206" s="5">
-        <v>10</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="79"/>
-        <v>860</v>
+        <v>50</v>
+      </c>
+      <c r="G206" s="5">
+        <v>1120</v>
       </c>
       <c r="H206" s="5">
-        <v>120</v>
-      </c>
-      <c r="J206">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="N206" t="str">
-        <f t="shared" si="80"/>
-        <v>(7,'combo','',710,10,860,120),</v>
+        <f>CONCATENATE("(",B206,",'",C206,"','",D206,"',",E206,",",F206,",",G206,",",H206,");",L2)</f>
+        <v>(9,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B207" s="5">
-        <v>8</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E207">
-        <f>G206+$K$209</f>
-        <v>880</v>
-      </c>
-      <c r="F207" s="5">
-        <v>10</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="79"/>
-        <v>960</v>
-      </c>
-      <c r="H207">
-        <v>35</v>
-      </c>
-      <c r="J207">
-        <v>80</v>
-      </c>
-      <c r="N207" t="str">
-        <f t="shared" si="80"/>
-        <v>(8,'bt','查询',880,10,960,35),</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B208" s="5">
-        <v>9</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208" s="5">
-        <v>50</v>
-      </c>
-      <c r="G208" s="5">
-        <v>1120</v>
-      </c>
-      <c r="H208" s="5">
-        <v>600</v>
-      </c>
-      <c r="N208" t="str">
-        <f>CONCATENATE("(",B208,",'",C208,"','",D208,"',",E208,",",F208,",",G208,",",H208,");",L2)</f>
-        <v>(9,'ls','',0,50,1120,600);"</v>
-      </c>
-    </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K209">
+      <c r="K207">
         <v>20</v>
       </c>
     </row>

--- a/Log/辅助编码.xlsx
+++ b/Log/辅助编码.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068DD17-72F1-4B1F-933F-544B1FF5BB2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C92EF6-DAA8-47C3-A6E2-9FE1D6B7D025}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="9552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="389">
   <si>
     <t>DistributList</t>
   </si>
@@ -1318,10 +1318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Receivable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1441,10 +1437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,15 +1457,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4061,52 +4049,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -4131,7 +4119,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -4146,22 +4134,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -4176,12 +4164,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -4196,17 +4184,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4205,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T207"/>
+  <dimension ref="A1:T209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P29"/>
@@ -4266,7 +4254,7 @@
       </c>
       <c r="N1" s="5"/>
       <c r="P1" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -4318,11 +4306,11 @@
       </c>
       <c r="O2" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P2" t="str">
         <f>CONCATENATE(O2,",")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -4359,11 +4347,11 @@
       </c>
       <c r="O3" t="str">
         <f>CONCATENATE(N14,N15,N16,N17,N18,N19,N20,N21,N22,N23)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','导出',810,10,890,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','导出',810,10,890,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P7" si="4">CONCATENATE(O3,",")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','导出',810,10,890,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','导出',810,10,890,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -4403,11 +4391,11 @@
       </c>
       <c r="O4" t="str">
         <f>CONCATENATE(N25,N26,N27,N28,N29,N30,N31,N32,N33,N34,N35)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="4"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4444,11 +4432,11 @@
       </c>
       <c r="O5" t="str">
         <f>CONCATENATE(N37,N38,N39,N40,N41,N42,N43,N44)</f>
-        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商编号',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,520);"</v>
+        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商名称',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="4"/>
-        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商编号',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,520);",</v>
+        <v>"(0,'text','仓库编号',10,10,80,30),(1,'combo','',90,10,190,80),(2,'text','供应商名称',200,10,290,30),(3,'combo','',300,10,450,120),(4,'bt','查询',470,10,550,35),(5,'bt','设置公式',570,10,650,35),(6,'bt','下发采购任务',670,10,780,35),(7,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4459,7 +4447,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E7" si="5">G5+10</f>
@@ -4484,10 +4472,10 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
-        <v>(4,'text','商品编号',440,10,530,30),</v>
+        <v>(4,'text','商品名称',440,10,530,30),</v>
       </c>
       <c r="P6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4523,11 +4511,11 @@
       </c>
       <c r="O7" t="str">
         <f>CONCATENATE(N46,N47,N48,N49,N50,N51,N52,N53,N54,N55,N56)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品编号',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','新增',790,10,870,35),(8,'bt','导出',890,10,970,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品名称',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','新增',790,10,870,35),(8,'bt','导出',890,10,970,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="4"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品编号',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','新增',790,10,870,35),(8,'bt','导出',890,10,970,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','商品名称',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','新增',790,10,870,35),(8,'bt','导出',890,10,970,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4567,11 +4555,11 @@
       </c>
       <c r="O8" t="str">
         <f>CONCATENATE(N58,N59,N60,N61,N62,N63,N64,N65,N66,N67)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户编号',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','导出',790,10,870,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户名称',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','导出',790,10,870,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" ref="P8:P17" si="6">CONCATENATE(O8,",")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户编号',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','导出',790,10,870,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户名称',440,10,510,30),(5,'combo','',520,10,670,120),(6,'bt','查询',690,10,770,35),(7,'bt','导出',790,10,870,35),(8,'ls','',0,50,1120,500),(9,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -4614,11 +4602,11 @@
       </c>
       <c r="O9" t="str">
         <f>CONCATENATE(N69,N70,N71,N72,N73,N74,N75,N76,N77,N78,N79)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4657,7 +4645,7 @@
         <v>(8,'bt','导出',910,10,990,35),</v>
       </c>
       <c r="P10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4700,10 +4688,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E12" s="5">
         <v>10</v>
@@ -4788,12 +4776,12 @@
         <v>"(0,'text','单据日期',10,10,80,30),</v>
       </c>
       <c r="O14" t="str">
-        <f>CONCATENATE(N111,N112,N113,N114,N115,N116,N117,N118)</f>
-        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','修改',540,10,620,35),(6,'bt','确定',640,10,720,35),(7,'ls','',0,50,1120,520);"</v>
+        <f>CONCATENATE(N111,N112,N113,N114,N115,N116,N117,N118,N119,N120)</f>
+        <v>"(0,'text','日期',10,10,40,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','商品名称',390,10,460,30),(5,'combo','',470,10,570,120),(6,'bt','查询',590,10,670,35),(7,'bt','修改',690,10,770,35),(8,'bt','确定',790,10,870,35),(9,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="6"/>
-        <v>"(0,'text','仓库编号',0,10,70,30),(1,'combo','',80,10,180,120),(2,'text','商品名称',190,10,260,30),(3,'combo','',270,10,420,120),(4,'bt','查询',440,10,520,35),(5,'bt','修改',540,10,620,35),(6,'bt','确定',640,10,720,35),(7,'ls','',0,50,1120,520);",</v>
+        <v>"(0,'text','日期',10,10,40,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','商品名称',390,10,460,30),(5,'combo','',470,10,570,120),(6,'bt','查询',590,10,670,35),(7,'bt','修改',690,10,770,35),(8,'bt','确定',790,10,870,35),(9,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4832,7 +4820,7 @@
         <v>(1,'time','',100,10,250,35),</v>
       </c>
       <c r="P15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -4871,7 +4859,7 @@
         <v>(2,'text','—',260,10,270,35),</v>
       </c>
       <c r="O16" t="str">
-        <f>CONCATENATE(N121,N122,N123)</f>
+        <f>CONCATENATE(N123,N124,N125)</f>
         <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P16" t="str">
@@ -4912,7 +4900,7 @@
         <v>(3,'time','',280,10,430,35),</v>
       </c>
       <c r="O17" t="str">
-        <f>CONCATENATE(N125,N126,N127)</f>
+        <f>CONCATENATE(N127,N128,N129)</f>
         <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P17" t="str">
@@ -4928,7 +4916,7 @@
         <v>158</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:E19" si="11">G17+10</f>
@@ -4953,10 +4941,10 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="10"/>
-        <v>(4,'text','供应商编号',440,10,530,30),</v>
+        <v>(4,'text','供应商名称',440,10,530,30),</v>
       </c>
       <c r="O18" t="str">
-        <f>CONCATENATE(N129,N130,N131)</f>
+        <f>CONCATENATE(N131,N132,N133)</f>
         <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P18" t="str">
@@ -4996,7 +4984,7 @@
         <v>(5,'combo','',540,10,690,120),</v>
       </c>
       <c r="O19" t="str">
-        <f>CONCATENATE(N133,N134,N135)</f>
+        <f>CONCATENATE(N135,N136,N137)</f>
         <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P19" t="str">
@@ -5040,7 +5028,7 @@
         <v>(6,'bt','查询',710,10,790,35),</v>
       </c>
       <c r="O20" t="str">
-        <f>CONCATENATE(N137,N138,N139)</f>
+        <f>CONCATENATE(N139,N140,N141)</f>
         <v>"(0,'bt','新增',920,10,1000,35),(1,'bt','禁用',1020,10,1100,35),(2,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P20" t="str">
@@ -5081,7 +5069,7 @@
         <v>(7,'bt','导出',810,10,890,35),</v>
       </c>
       <c r="P21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -5108,12 +5096,12 @@
         <v>(8,'ls','',0,50,1120,500),</v>
       </c>
       <c r="O22" t="str">
-        <f>CONCATENATE(N141,N142,N143,N144,N145,N146,N147,N148,N149,N150,N151)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
+        <f>CONCATENATE(N143,N144,N145,N146,N147,N148,N149,N150,N151,N152,N153)</f>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','客户名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -5124,7 +5112,7 @@
         <v>158</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E23" s="5">
         <v>10</v>
@@ -5150,22 +5138,22 @@
         <v>(9,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="O23" t="str">
-        <f>CONCATENATE(N153,N154,N155,N156,N157,N158,N159,N160,N161,N162,N163)</f>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
+        <f>CONCATENATE(N155,N156,N157,N158,N159,N160,N161,N162,N163,N164,N165)</f>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商编号',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
+        <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'text','供应商名称',440,10,530,30),(5,'combo','',540,10,690,120),(6,'bt','查询',710,10,790,35),(7,'bt','新增',810,10,890,35),(8,'bt','导出',910,10,990,35),(9,'ls','',0,50,1120,500),(10,'text','金额总计：',10,510,160,530);",</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O24" t="str">
-        <f>CONCATENATE(N165,N166,N167,N168,N169)</f>
-        <v>"(0,'text','客户编号',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,500);"</v>
+        <f>CONCATENATE(N167,N168,N169,N170,N171)</f>
+        <v>"(0,'text','客户名称',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,500);"</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','客户编号',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,500);",</v>
+        <v>"(0,'text','客户名称',0,10,70,30),(1,'combo','',80,10,230,120),(2,'bt','查询',250,10,330,35),(3,'bt','导出',350,10,430,35),(4,'ls','',0,50,1120,500);",</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -5203,12 +5191,12 @@
         <v>"(0,'text','单据日期',10,10,80,30),</v>
       </c>
       <c r="O25" t="str">
-        <f>CONCATENATE(N171,N172,N173,N174,N175)</f>
-        <v>"(0,'text','供应商编号',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,520);"</v>
+        <f>CONCATENATE(N173,N174,N175,N176,N177)</f>
+        <v>"(0,'text','供应商名称',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="12"/>
-        <v>"(0,'text','供应商编号',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,520);",</v>
+        <v>"(0,'text','供应商名称',0,10,90,35),(1,'combo','',100,10,250,120),(2,'bt','查询',270,10,350,35),(3,'bt','导出',360,10,440,35),(4,'ls','',0,50,1120,520);",</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -5244,7 +5232,7 @@
         <v>(1,'time','',100,10,250,35),</v>
       </c>
       <c r="O26" t="str">
-        <f>CONCATENATE(N177,N178,N179,N180,N181,N182,N183,N184,N185)</f>
+        <f>CONCATENATE(N179,N180,N181,N182,N183,N184,N185,N186,N187)</f>
         <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'ls','',0,50,1120,500),(8,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P26" t="str">
@@ -5285,7 +5273,7 @@
         <v>(2,'text','—',260,10,270,35),</v>
       </c>
       <c r="O27" t="str">
-        <f>CONCATENATE(N187,N188,N189,N190,N191,N192,N193,N194,N195)</f>
+        <f>CONCATENATE(N189,N190,N191,N192,N193,N194,N195,N196,N197)</f>
         <v>"(0,'text','单据日期',10,10,80,30),(1,'time','',100,10,250,35),(2,'text','—',260,10,270,35),(3,'time','',280,10,430,35),(4,'bt','查询',450,10,530,35),(5,'bt','新增',550,10,630,35),(6,'bt','导出',650,10,730,35),(7,'ls','',0,50,1120,500),(8,'text','金额总计：',10,510,160,530);"</v>
       </c>
       <c r="P27" t="str">
@@ -5322,7 +5310,7 @@
         <v>(3,'time','',280,10,430,35),</v>
       </c>
       <c r="P28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -5333,7 +5321,7 @@
         <v>158</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ref="E29:E30" si="18">G28+10</f>
@@ -5355,10 +5343,10 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="17"/>
-        <v>(4,'text','供应商编号',440,10,530,30),</v>
+        <v>(4,'text','供应商名称',440,10,530,30),</v>
       </c>
       <c r="O29" t="str">
-        <f>CONCATENATE(N197,N198,N199,N200,N201,N202,N203,N204,N205,N206)</f>
+        <f>CONCATENATE(N199,N200,N201,N202,N203,N204,N205,N206,N207,N208)</f>
         <v>"(0,'text','日期',0,10,30,30),(1,'time','',50,10,200,35),(2,'text','—',210,10,220,35),(3,'time','',230,10,380,35),(4,'text','员工名称',390,10,460,30),(5,'combo','',470,10,620,120),(6,'text','操作',630,10,700,30),(7,'combo','',710,10,860,120),(8,'bt','查询',880,10,960,35),(9,'ls','',0,50,1120,520);"</v>
       </c>
       <c r="P29" t="str">
@@ -5532,7 +5520,7 @@
         <v>158</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E35" s="5">
         <v>10</v>
@@ -5573,7 +5561,7 @@
         <v>158</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -5636,7 +5624,7 @@
         <v>158</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E39">
         <f t="shared" ref="E39:E40" si="23">G38+10</f>
@@ -5657,7 +5645,7 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="22"/>
-        <v>(2,'text','供应商编号',200,10,290,30),</v>
+        <v>(2,'text','供应商名称',200,10,290,30),</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -5951,7 +5939,7 @@
         <v>158</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" ref="E50:E51" si="28">G49+10</f>
@@ -5973,7 +5961,7 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="27"/>
-        <v>(4,'text','商品编号',440,10,510,30),</v>
+        <v>(4,'text','商品名称',440,10,510,30),</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -6133,10 +6121,10 @@
         <v>10</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E56" s="5">
         <v>10</v>
@@ -6302,7 +6290,7 @@
         <v>158</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" ref="E62:E63" si="33">G61+10</f>
@@ -6324,7 +6312,7 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="32"/>
-        <v>(4,'text','客户编号',440,10,510,30),</v>
+        <v>(4,'text','客户名称',440,10,510,30),</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -6454,7 +6442,7 @@
         <v>158</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E67" s="5">
         <v>10</v>
@@ -6618,7 +6606,7 @@
         <v>158</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" ref="E73:E74" si="39">G72+10</f>
@@ -6640,7 +6628,7 @@
       </c>
       <c r="N73" t="str">
         <f t="shared" si="38"/>
-        <v>(4,'text','客户编号',440,10,530,30),</v>
+        <v>(4,'text','客户名称',440,10,530,30),</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -6806,7 +6794,7 @@
         <v>158</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E79" s="5">
         <v>10</v>
@@ -6972,10 +6960,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" ref="E85:E86" si="46">G84+10</f>
@@ -7004,7 +6992,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="46"/>
@@ -7287,10 +7275,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" ref="E96:E97" si="51">G95+10</f>
@@ -7319,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="51"/>
@@ -7477,7 +7465,7 @@
         <v>158</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -7695,56 +7683,60 @@
         <v>158</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="E111" s="5">
+        <v>10</v>
       </c>
       <c r="F111" s="5">
         <v>10</v>
       </c>
-      <c r="G111">
-        <f t="shared" ref="G111:G117" si="55">E111+J111</f>
-        <v>70</v>
-      </c>
-      <c r="H111">
+      <c r="G111" s="5">
+        <f t="shared" ref="G111:G119" si="55">E111+J111</f>
+        <v>40</v>
+      </c>
+      <c r="H111" s="5">
+        <f>F111+20</f>
         <v>30</v>
       </c>
       <c r="J111">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N111" t="str">
         <f>CONCATENATE(L2,"(",B111,",'",C111,"','",D111,"',",E111,",",F111,",",G111,",",H111,"),")</f>
-        <v>"(0,'text','仓库编号',0,10,70,30),</v>
+        <v>"(0,'text','日期',10,10,40,30),</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>9</v>
+      </c>
       <c r="B112" s="5">
         <v>1</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E112">
+        <v>160</v>
+      </c>
+      <c r="E112" s="5">
         <f>G111+10</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F112" s="5">
         <v>10</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="5">
         <f t="shared" si="55"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H112" s="5">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J112">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" ref="N112:N117" si="56">CONCATENATE("(",B112,",'",C112,"','",D112,"',",E112,",",F112,",",G112,",",H112,"),")</f>
-        <v>(1,'combo','',80,10,180,120),</v>
+        <f t="shared" ref="N112:N114" si="56">CONCATENATE("(",B112,",'",C112,"','",D112,"',",E112,",",F112,",",G112,",",H112,"),")</f>
+        <v>(1,'time','',50,10,200,35),</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -7755,28 +7747,28 @@
         <v>158</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113">
-        <f t="shared" ref="E113:E114" si="57">G112+10</f>
-        <v>190</v>
+        <v>236</v>
+      </c>
+      <c r="E113" s="5">
+        <f>G112+10</f>
+        <v>210</v>
       </c>
       <c r="F113" s="5">
         <v>10</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="5">
         <f t="shared" si="55"/>
-        <v>260</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
+        <v>220</v>
+      </c>
+      <c r="H113" s="5">
+        <v>35</v>
       </c>
       <c r="J113">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N113" t="str">
         <f t="shared" si="56"/>
-        <v>(2,'text','商品名称',190,10,260,30),</v>
+        <v>(2,'text','—',210,10,220,35),</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -7784,28 +7776,28 @@
         <v>3</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="57"/>
-        <v>270</v>
+        <v>160</v>
+      </c>
+      <c r="E114" s="5">
+        <f>G113+10</f>
+        <v>230</v>
       </c>
       <c r="F114" s="5">
         <v>10</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="5">
         <f t="shared" si="55"/>
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="H114" s="5">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J114">
         <v>150</v>
       </c>
       <c r="N114" t="str">
         <f t="shared" si="56"/>
-        <v>(3,'combo','',270,10,420,120),</v>
+        <v>(3,'time','',230,10,380,35),</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -7813,31 +7805,31 @@
         <v>4</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E115">
-        <f>G114+20</f>
-        <v>440</v>
+        <v>178</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" ref="E115:E116" si="57">G114+10</f>
+        <v>390</v>
       </c>
       <c r="F115" s="5">
         <v>10</v>
       </c>
       <c r="G115">
-        <f t="shared" si="55"/>
-        <v>520</v>
+        <f t="shared" ref="G115:G116" si="58">E115+J115</f>
+        <v>460</v>
       </c>
       <c r="H115">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J115">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" si="56"/>
-        <v>(4,'bt','查询',440,10,520,35),</v>
+        <f>CONCATENATE("(",B115,",'",C115,"','",D115,"',",E115,",",F115,",",G115,",",H115,"),")</f>
+        <v>(4,'text','商品名称',390,10,460,30),</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -7845,31 +7837,28 @@
         <v>5</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116">
-        <f t="shared" ref="E116:E117" si="58">G115+20</f>
-        <v>540</v>
+        <v>164</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="57"/>
+        <v>470</v>
       </c>
       <c r="F116" s="5">
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="55"/>
-        <v>620</v>
-      </c>
-      <c r="H116">
-        <v>35</v>
+        <f t="shared" si="58"/>
+        <v>570</v>
+      </c>
+      <c r="H116" s="5">
+        <v>120</v>
       </c>
       <c r="J116">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" si="56"/>
-        <v>(5,'bt','修改',540,10,620,35),</v>
+        <f>CONCATENATE("(",B116,",'",C116,"','",D116,"',",E116,",",F116,",",G116,",",H116,"),")</f>
+        <v>(5,'combo','',470,10,570,120),</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -7880,18 +7869,18 @@
         <v>165</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="58"/>
-        <v>640</v>
+        <v>168</v>
+      </c>
+      <c r="E117" s="5">
+        <f>G116+20</f>
+        <v>590</v>
       </c>
       <c r="F117" s="5">
         <v>10</v>
       </c>
       <c r="G117">
         <f t="shared" si="55"/>
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="H117">
         <v>35</v>
@@ -7899,12 +7888,9 @@
       <c r="J117">
         <v>80</v>
       </c>
-      <c r="K117">
-        <v>20</v>
-      </c>
       <c r="N117" t="str">
-        <f t="shared" si="56"/>
-        <v>(6,'bt','确定',640,10,720,35),</v>
+        <f t="shared" ref="N117:N119" si="59">CONCATENATE("(",B117,",'",C117,"','",D117,"',",E117,",",F117,",",G117,",",H117,"),")</f>
+        <v>(6,'bt','查询',590,10,670,35),</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -7912,637 +7898,643 @@
         <v>7</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" ref="E118:E119" si="60">G117+20</f>
+        <v>690</v>
+      </c>
+      <c r="F118" s="5">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="55"/>
+        <v>770</v>
+      </c>
+      <c r="H118">
+        <v>35</v>
+      </c>
+      <c r="J118">
+        <v>80</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="59"/>
+        <v>(7,'bt','修改',690,10,770,35),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="5">
+        <v>8</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="60"/>
+        <v>790</v>
+      </c>
+      <c r="F119" s="5">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="55"/>
+        <v>870</v>
+      </c>
+      <c r="H119">
+        <v>35</v>
+      </c>
+      <c r="J119">
+        <v>80</v>
+      </c>
+      <c r="K119">
+        <v>20</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="59"/>
+        <v>(8,'bt','确定',790,10,870,35),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="5">
+        <v>9</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E118">
+      <c r="E120">
         <v>0</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F120" s="5">
         <v>50</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G120" s="5">
         <v>1120</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H120" s="5">
         <v>520</v>
       </c>
-      <c r="N118" t="str">
-        <f>CONCATENATE("(",B118,",'",C118,"','",D118,"',",E118,",",F118,",",G118,",",H118,");",L2)</f>
-        <v>(7,'ls','',0,50,1120,520);"</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K120">
+      <c r="N120" t="str">
+        <f>CONCATENATE("(",B120,",'",C120,"','",D120,"',",E120,",",F120,",",G120,",",H120,");",L2)</f>
+        <v>(9,'ls','',0,50,1120,520);"</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K122">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>197</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B123" s="5">
         <v>0</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E121">
-        <f>G121-J121</f>
+      <c r="E123">
+        <f>G123-J123</f>
         <v>920</v>
       </c>
-      <c r="F121" s="5">
-        <v>10</v>
-      </c>
-      <c r="G121">
-        <f>E122-$K$126</f>
+      <c r="F123" s="5">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <f>E124-$K$128</f>
         <v>1000</v>
       </c>
-      <c r="H121">
+      <c r="H123">
         <v>35</v>
       </c>
-      <c r="J121">
+      <c r="J123">
         <v>80</v>
       </c>
-      <c r="L121" t="s">
-        <v>380</v>
-      </c>
-      <c r="N121" t="str">
-        <f>CONCATENATE(L121,"(",B121,",'",C121,"','",D121,"',",E121,",",F121,",",G121,",",H121,"),")</f>
+      <c r="L123" t="s">
+        <v>379</v>
+      </c>
+      <c r="N123" t="str">
+        <f>CONCATENATE(L123,"(",B123,",'",C123,"','",D123,"',",E123,",",F123,",",G123,",",H123,"),")</f>
         <v>"(0,'bt','新增',920,10,1000,35),</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>12</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B124" s="5">
         <v>1</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E122">
-        <f>G122-J122</f>
+      <c r="E124">
+        <f>G124-J124</f>
         <v>1020</v>
       </c>
-      <c r="F122" s="5">
-        <v>10</v>
-      </c>
-      <c r="G122">
-        <f>G123-20</f>
+      <c r="F124" s="5">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <f>G125-20</f>
         <v>1100</v>
       </c>
-      <c r="H122">
+      <c r="H124">
         <v>35</v>
       </c>
-      <c r="J122">
+      <c r="J124">
         <v>80</v>
       </c>
-      <c r="N122" t="str">
-        <f>CONCATENATE("(",B122,",'",C122,"','",D122,"',",E122,",",F122,",",G122,",",H122,"),")</f>
+      <c r="N124" t="str">
+        <f>CONCATENATE("(",B124,",'",C124,"','",D124,"',",E124,",",F124,",",G124,",",H124,"),")</f>
         <v>(1,'bt','禁用',1020,10,1100,35),</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B123" s="5">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="5">
         <v>2</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E123">
+      <c r="E125">
         <v>0</v>
       </c>
-      <c r="F123">
+      <c r="F125">
         <v>50</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G125" s="5">
         <v>1120</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H125" s="5">
         <v>520</v>
       </c>
-      <c r="N123" t="str">
-        <f>CONCATENATE("(",B123,",'",C123,"','",D123,"',",E123,",",F123,",",G123,",",H123,");",L2)</f>
+      <c r="N125" t="str">
+        <f>CONCATENATE("(",B125,",'",C125,"','",D125,"',",E125,",",F125,",",G125,",",H125,");",L2)</f>
         <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>199</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B127" s="5">
         <v>0</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E125">
-        <f>G125-J125</f>
+      <c r="E127">
+        <f>G127-J127</f>
         <v>920</v>
       </c>
-      <c r="F125" s="5">
-        <v>10</v>
-      </c>
-      <c r="G125">
-        <f>E126-$K$126</f>
+      <c r="F127" s="5">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <f>E128-$K$128</f>
         <v>1000</v>
       </c>
-      <c r="H125">
+      <c r="H127">
         <v>35</v>
       </c>
-      <c r="J125">
+      <c r="J127">
         <v>80</v>
       </c>
-      <c r="N125" t="str">
-        <f>CONCATENATE(L121,"(",B125,",'",C125,"','",D125,"',",E125,",",F125,",",G125,",",H125,"),")</f>
+      <c r="N127" t="str">
+        <f>CONCATENATE(L123,"(",B127,",'",C127,"','",D127,"',",E127,",",F127,",",G127,",",H127,"),")</f>
         <v>"(0,'bt','新增',920,10,1000,35),</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>13</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B128" s="5">
         <v>1</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E126">
-        <f>G126-J126</f>
+      <c r="E128">
+        <f>G128-J128</f>
         <v>1020</v>
       </c>
-      <c r="F126" s="5">
-        <v>10</v>
-      </c>
-      <c r="G126">
-        <f>G127-20</f>
+      <c r="F128" s="5">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <f>G129-20</f>
         <v>1100</v>
       </c>
-      <c r="H126">
+      <c r="H128">
         <v>35</v>
       </c>
-      <c r="J126">
+      <c r="J128">
         <v>80</v>
       </c>
-      <c r="K126">
+      <c r="K128">
         <v>20</v>
       </c>
-      <c r="N126" t="str">
-        <f>CONCATENATE("(",B126,",'",C126,"','",D126,"',",E126,",",F126,",",G126,",",H126,"),")</f>
+      <c r="N128" t="str">
+        <f>CONCATENATE("(",B128,",'",C128,"','",D128,"',",E128,",",F128,",",G128,",",H128,"),")</f>
         <v>(1,'bt','禁用',1020,10,1100,35),</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B127" s="5">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="5">
         <v>2</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E127">
+      <c r="E129">
         <v>0</v>
       </c>
-      <c r="F127">
+      <c r="F129">
         <v>50</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G129" s="5">
         <v>1120</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H129" s="5">
         <v>520</v>
       </c>
-      <c r="N127" t="str">
-        <f>CONCATENATE("(",B127,",'",C127,"','",D127,"',",E127,",",F127,",",G127,",",H127,");",L2)</f>
+      <c r="N129" t="str">
+        <f>CONCATENATE("(",B129,",'",C129,"','",D129,"',",E129,",",F129,",",G129,",",H129,");",L2)</f>
         <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>347</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B131" s="5">
         <v>0</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E129">
-        <f>G129-J129</f>
+      <c r="E131">
+        <f>G131-J131</f>
         <v>920</v>
       </c>
-      <c r="F129" s="5">
-        <v>10</v>
-      </c>
-      <c r="G129">
-        <f>E130-$K$126</f>
+      <c r="F131" s="5">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <f>E132-$K$128</f>
         <v>1000</v>
       </c>
-      <c r="H129">
+      <c r="H131">
         <v>35</v>
       </c>
-      <c r="J129">
+      <c r="J131">
         <v>80</v>
       </c>
-      <c r="N129" t="str">
-        <f>CONCATENATE(L121,"(",B129,",'",C129,"','",D129,"',",E129,",",F129,",",G129,",",H129,"),")</f>
+      <c r="N131" t="str">
+        <f>CONCATENATE(L123,"(",B131,",'",C131,"','",D131,"',",E131,",",F131,",",G131,",",H131,"),")</f>
         <v>"(0,'bt','新增',920,10,1000,35),</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>14</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B132" s="5">
         <v>1</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E130">
-        <f>G130-J130</f>
+      <c r="E132">
+        <f>G132-J132</f>
         <v>1020</v>
       </c>
-      <c r="F130" s="5">
-        <v>10</v>
-      </c>
-      <c r="G130">
-        <f>G131-20</f>
+      <c r="F132" s="5">
+        <v>10</v>
+      </c>
+      <c r="G132">
+        <f>G133-20</f>
         <v>1100</v>
       </c>
-      <c r="H130">
+      <c r="H132">
         <v>35</v>
       </c>
-      <c r="J130">
+      <c r="J132">
         <v>80</v>
       </c>
-      <c r="K130">
+      <c r="K132">
         <v>20</v>
       </c>
-      <c r="N130" t="str">
-        <f>CONCATENATE("(",B130,",'",C130,"','",D130,"',",E130,",",F130,",",G130,",",H130,"),")</f>
+      <c r="N132" t="str">
+        <f>CONCATENATE("(",B132,",'",C132,"','",D132,"',",E132,",",F132,",",G132,",",H132,"),")</f>
         <v>(1,'bt','禁用',1020,10,1100,35),</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B131" s="5">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="5">
         <v>2</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E131">
+      <c r="E133">
         <v>0</v>
       </c>
-      <c r="F131">
+      <c r="F133">
         <v>50</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G133" s="5">
         <v>1120</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H133" s="5">
         <v>520</v>
       </c>
-      <c r="N131" t="str">
-        <f>CONCATENATE("(",B131,",'",C131,"','",D131,"',",E131,",",F131,",",G131,",",H131,");",L2)</f>
+      <c r="N133" t="str">
+        <f>CONCATENATE("(",B133,",'",C133,"','",D133,"',",E133,",",F133,",",G133,",",H133,");",L2)</f>
         <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B132" s="5"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>200</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B135" s="5">
         <v>0</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E133">
-        <f>G133-J133</f>
+      <c r="E135">
+        <f>G135-J135</f>
         <v>920</v>
       </c>
-      <c r="F133" s="5">
-        <v>10</v>
-      </c>
-      <c r="G133">
-        <f>E134-$K$126</f>
+      <c r="F135" s="5">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <f>E136-$K$128</f>
         <v>1000</v>
       </c>
-      <c r="H133">
+      <c r="H135">
         <v>35</v>
       </c>
-      <c r="J133">
+      <c r="J135">
         <v>80</v>
       </c>
-      <c r="N133" t="str">
-        <f>CONCATENATE(L121,"(",B133,",'",C133,"','",D133,"',",E133,",",F133,",",G133,",",H133,"),")</f>
+      <c r="N135" t="str">
+        <f>CONCATENATE(L123,"(",B135,",'",C135,"','",D135,"',",E135,",",F135,",",G135,",",H135,"),")</f>
         <v>"(0,'bt','新增',920,10,1000,35),</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>15</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B136" s="5">
         <v>1</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E134">
-        <f>G134-J134</f>
+      <c r="E136">
+        <f>G136-J136</f>
         <v>1020</v>
       </c>
-      <c r="F134" s="5">
-        <v>10</v>
-      </c>
-      <c r="G134">
-        <f>G135-20</f>
+      <c r="F136" s="5">
+        <v>10</v>
+      </c>
+      <c r="G136">
+        <f>G137-20</f>
         <v>1100</v>
       </c>
-      <c r="H134">
+      <c r="H136">
         <v>35</v>
       </c>
-      <c r="J134">
+      <c r="J136">
         <v>80</v>
       </c>
-      <c r="K134">
+      <c r="K136">
         <v>20</v>
       </c>
-      <c r="N134" t="str">
-        <f>CONCATENATE("(",B134,",'",C134,"','",D134,"',",E134,",",F134,",",G134,",",H134,"),")</f>
+      <c r="N136" t="str">
+        <f>CONCATENATE("(",B136,",'",C136,"','",D136,"',",E136,",",F136,",",G136,",",H136,"),")</f>
         <v>(1,'bt','禁用',1020,10,1100,35),</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B135" s="5">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="5">
         <v>2</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E135">
+      <c r="E137">
         <v>0</v>
       </c>
-      <c r="F135">
+      <c r="F137">
         <v>50</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G137" s="5">
         <v>1120</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H137" s="5">
         <v>520</v>
       </c>
-      <c r="N135" t="str">
-        <f>CONCATENATE("(",B135,",'",C135,"','",D135,"',",E135,",",F135,",",G135,",",H135,");",L2)</f>
+      <c r="N137" t="str">
+        <f>CONCATENATE("(",B137,",'",C137,"','",D137,"',",E137,",",F137,",",G137,",",H137,");",L2)</f>
         <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>201</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B139" s="5">
         <v>0</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E137">
-        <f>G137-J137</f>
+      <c r="E139">
+        <f>G139-J139</f>
         <v>920</v>
       </c>
-      <c r="F137" s="5">
-        <v>10</v>
-      </c>
-      <c r="G137">
-        <f>E138-$K$126</f>
+      <c r="F139" s="5">
+        <v>10</v>
+      </c>
+      <c r="G139">
+        <f>E140-$K$128</f>
         <v>1000</v>
       </c>
-      <c r="H137">
+      <c r="H139">
         <v>35</v>
       </c>
-      <c r="J137">
+      <c r="J139">
         <v>80</v>
       </c>
-      <c r="L137" t="s">
-        <v>382</v>
-      </c>
-      <c r="N137" t="str">
-        <f>CONCATENATE(L137,"(",B137,",'",C137,"','",D137,"',",E137,",",F137,",",G137,",",H137,"),")</f>
+      <c r="L139" t="s">
+        <v>381</v>
+      </c>
+      <c r="N139" t="str">
+        <f>CONCATENATE(L139,"(",B139,",'",C139,"','",D139,"',",E139,",",F139,",",G139,",",H139,"),")</f>
         <v>"(0,'bt','新增',920,10,1000,35),</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>16</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B140" s="5">
         <v>1</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E138">
-        <f>G138-J138</f>
+      <c r="E140">
+        <f>G140-J140</f>
         <v>1020</v>
       </c>
-      <c r="F138" s="5">
-        <v>10</v>
-      </c>
-      <c r="G138">
-        <f>G139-20</f>
+      <c r="F140" s="5">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <f>G141-20</f>
         <v>1100</v>
       </c>
-      <c r="H138">
+      <c r="H140">
         <v>35</v>
       </c>
-      <c r="J138">
+      <c r="J140">
         <v>80</v>
       </c>
-      <c r="K138">
+      <c r="K140">
         <v>20</v>
       </c>
-      <c r="N138" t="str">
-        <f>CONCATENATE("(",B138,",'",C138,"','",D138,"',",E138,",",F138,",",G138,",",H138,"),")</f>
+      <c r="N140" t="str">
+        <f>CONCATENATE("(",B140,",'",C140,"','",D140,"',",E140,",",F140,",",G140,",",H140,"),")</f>
         <v>(1,'bt','禁用',1020,10,1100,35),</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B139" s="5">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="5">
         <v>2</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E139">
+      <c r="E141">
         <v>0</v>
       </c>
-      <c r="F139">
+      <c r="F141">
         <v>50</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G141" s="5">
         <v>1120</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H141" s="5">
         <v>520</v>
       </c>
-      <c r="N139" t="str">
-        <f>CONCATENATE("(",B139,",'",C139,"','",D139,"',",E139,",",F139,",",G139,",",H139,");",L2)</f>
+      <c r="N141" t="str">
+        <f>CONCATENATE("(",B141,",'",C141,"','",D141,"',",E141,",",F141,",",G141,",",H141,");",L2)</f>
         <v>(2,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B143" s="5">
         <v>0</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E141" s="5">
-        <v>10</v>
-      </c>
-      <c r="F141" s="5">
-        <v>10</v>
-      </c>
-      <c r="G141" s="5">
-        <f t="shared" ref="G141:G149" si="59">E141+J141</f>
-        <v>80</v>
-      </c>
-      <c r="H141" s="5">
-        <f t="shared" ref="H141" si="60">F141+20</f>
-        <v>30</v>
-      </c>
-      <c r="J141">
-        <v>70</v>
-      </c>
-      <c r="N141" t="str">
-        <f>CONCATENATE(L2,"(",B141,",'",C141,"','",D141,"',",E141,",",F141,",",G141,",",H141,"),")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>17</v>
-      </c>
-      <c r="B142" s="5">
-        <v>1</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E142" s="5">
-        <f t="shared" ref="E142" si="61">G141+$K$2</f>
-        <v>100</v>
-      </c>
-      <c r="F142" s="5">
-        <v>10</v>
-      </c>
-      <c r="G142" s="5">
-        <f t="shared" si="59"/>
-        <v>250</v>
-      </c>
-      <c r="H142" s="5">
-        <v>35</v>
-      </c>
-      <c r="J142">
-        <v>150</v>
-      </c>
-      <c r="N142" t="str">
-        <f t="shared" ref="N142:N149" si="62">CONCATENATE("(",B142,",'",C142,"','",D142,"',",E142,",",F142,",",G142,",",H142,"),")</f>
-        <v>(1,'time','',100,10,250,35),</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B143" s="5">
-        <v>2</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="E143" s="5">
-        <f>G142+10</f>
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F143" s="5">
         <v>10</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="59"/>
-        <v>270</v>
+        <f t="shared" ref="G143:G151" si="61">E143+J143</f>
+        <v>80</v>
       </c>
       <c r="H143" s="5">
-        <v>35</v>
+        <f t="shared" ref="H143" si="62">F143+20</f>
+        <v>30</v>
       </c>
       <c r="J143">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N143" t="str">
-        <f t="shared" si="62"/>
-        <v>(2,'text','—',260,10,270,35),</v>
+        <f>CONCATENATE(L2,"(",B143,",'",C143,"','",D143,"',",E143,",",F143,",",G143,",",H143,"),")</f>
+        <v>"(0,'text','单据日期',10,10,80,30),</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>17</v>
+      </c>
       <c r="B144" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E144" s="5">
-        <f>G143+10</f>
-        <v>280</v>
+        <f t="shared" ref="E144" si="63">G143+$K$2</f>
+        <v>100</v>
       </c>
       <c r="F144" s="5">
         <v>10</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="59"/>
-        <v>430</v>
+        <f t="shared" si="61"/>
+        <v>250</v>
       </c>
       <c r="H144" s="5">
         <v>35</v>
@@ -8551,161 +8543,153 @@
         <v>150</v>
       </c>
       <c r="N144" t="str">
-        <f t="shared" si="62"/>
-        <v>(3,'time','',280,10,430,35),</v>
+        <f t="shared" ref="N144:N151" si="64">CONCATENATE("(",B144,",'",C144,"','",D144,"',",E144,",",F144,",",G144,",",H144,"),")</f>
+        <v>(1,'time','',100,10,250,35),</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>390</v>
+        <v>236</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" ref="E145:E146" si="63">G144+10</f>
-        <v>440</v>
+        <f>G144+10</f>
+        <v>260</v>
       </c>
       <c r="F145" s="5">
         <v>10</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="59"/>
-        <v>530</v>
+        <f t="shared" si="61"/>
+        <v>270</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" ref="H145" si="64">F145+20</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J145">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="N145" t="str">
-        <f t="shared" si="62"/>
-        <v>(4,'text','客户编号',440,10,530,30),</v>
+        <f t="shared" si="64"/>
+        <v>(2,'text','—',260,10,270,35),</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="63"/>
-        <v>540</v>
+        <f>G145+10</f>
+        <v>280</v>
       </c>
       <c r="F146" s="5">
         <v>10</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="59"/>
-        <v>690</v>
+        <f t="shared" si="61"/>
+        <v>430</v>
       </c>
       <c r="H146" s="5">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J146">
         <v>150</v>
       </c>
       <c r="N146" t="str">
-        <f t="shared" si="62"/>
-        <v>(5,'combo','',540,10,690,120),</v>
+        <f t="shared" si="64"/>
+        <v>(3,'time','',280,10,430,35),</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>168</v>
+        <v>388</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" ref="E147:E149" si="65">G146+$K$2</f>
-        <v>710</v>
+        <f t="shared" ref="E147:E148" si="65">G146+10</f>
+        <v>440</v>
       </c>
       <c r="F147" s="5">
         <v>10</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="59"/>
-        <v>790</v>
+        <f t="shared" si="61"/>
+        <v>530</v>
       </c>
       <c r="H147" s="5">
-        <f>F147+25</f>
-        <v>35</v>
+        <f t="shared" ref="H147" si="66">F147+20</f>
+        <v>30</v>
       </c>
       <c r="J147">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N147" t="str">
-        <f t="shared" si="62"/>
-        <v>(6,'bt','查询',710,10,790,35),</v>
+        <f t="shared" si="64"/>
+        <v>(4,'text','客户名称',440,10,530,30),</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E148" s="5">
         <f t="shared" si="65"/>
-        <v>810</v>
+        <v>540</v>
       </c>
       <c r="F148" s="5">
         <v>10</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="59"/>
-        <v>890</v>
+        <f t="shared" si="61"/>
+        <v>690</v>
       </c>
       <c r="H148" s="5">
-        <f>F148+25</f>
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J148">
-        <v>80</v>
-      </c>
-      <c r="K148">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N148" t="str">
-        <f t="shared" si="62"/>
-        <v>(7,'bt','新增',810,10,890,35),</v>
+        <f t="shared" si="64"/>
+        <v>(5,'combo','',540,10,690,120),</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="65"/>
-        <v>910</v>
+        <f t="shared" ref="E149:E151" si="67">G148+$K$2</f>
+        <v>710</v>
       </c>
       <c r="F149" s="5">
         <v>10</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="59"/>
-        <v>990</v>
+        <f t="shared" si="61"/>
+        <v>790</v>
       </c>
       <c r="H149" s="5">
         <f>F149+25</f>
@@ -8715,194 +8699,202 @@
         <v>80</v>
       </c>
       <c r="N149" t="str">
-        <f t="shared" si="62"/>
-        <v>(8,'bt','导出',910,10,990,35),</v>
+        <f t="shared" si="64"/>
+        <v>(6,'bt','查询',710,10,790,35),</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E150" s="5">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>810</v>
       </c>
       <c r="F150" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G150" s="5">
-        <v>1120</v>
+        <f t="shared" si="61"/>
+        <v>890</v>
       </c>
       <c r="H150" s="5">
-        <v>500</v>
-      </c>
-      <c r="M150">
-        <v>11</v>
+        <f>F150+25</f>
+        <v>35</v>
+      </c>
+      <c r="J150">
+        <v>80</v>
+      </c>
+      <c r="K150">
+        <v>20</v>
       </c>
       <c r="N150" t="str">
-        <f>CONCATENATE("(",B150,",'",C150,"','",D150,"',",E150,",",F150,",",G150,",",H150,"),")</f>
-        <v>(9,'ls','',0,50,1120,500),</v>
+        <f t="shared" si="64"/>
+        <v>(7,'bt','新增',810,10,890,35),</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>385</v>
+        <v>170</v>
       </c>
       <c r="E151" s="5">
-        <v>10</v>
+        <f t="shared" si="67"/>
+        <v>910</v>
       </c>
       <c r="F151" s="5">
+        <v>10</v>
+      </c>
+      <c r="G151" s="5">
+        <f t="shared" si="61"/>
+        <v>990</v>
+      </c>
+      <c r="H151" s="5">
+        <f>F151+25</f>
+        <v>35</v>
+      </c>
+      <c r="J151">
+        <v>80</v>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="64"/>
+        <v>(8,'bt','导出',910,10,990,35),</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5">
+        <v>9</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0</v>
+      </c>
+      <c r="F152" s="5">
+        <v>50</v>
+      </c>
+      <c r="G152" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H152" s="5">
+        <v>500</v>
+      </c>
+      <c r="M152">
+        <v>11</v>
+      </c>
+      <c r="N152" t="str">
+        <f>CONCATENATE("(",B152,",'",C152,"','",D152,"',",E152,",",F152,",",G152,",",H152,"),")</f>
+        <v>(9,'ls','',0,50,1120,500),</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5">
+        <v>10</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E153" s="5">
+        <v>10</v>
+      </c>
+      <c r="F153" s="5">
         <v>510</v>
       </c>
-      <c r="G151" s="5">
-        <f>E151+J151</f>
+      <c r="G153" s="5">
+        <f>E153+J153</f>
         <v>160</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H153" s="5">
         <v>530</v>
       </c>
-      <c r="J151">
+      <c r="J153">
         <v>150</v>
       </c>
-      <c r="M151">
+      <c r="M153">
         <v>12</v>
       </c>
-      <c r="N151" t="str">
-        <f>CONCATENATE("(",B151,",'",C151,"','",D151,"',",E151,",",F151,",",G151,",",H151,");",$L$2)</f>
+      <c r="N153" t="str">
+        <f>CONCATENATE("(",B153,",'",C153,"','",D153,"',",E153,",",F153,",",G153,",",H153,");",$L$2)</f>
         <v>(10,'text','金额总计：',10,510,160,530);"</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>204</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B155" s="5">
         <v>0</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E153" s="5">
-        <v>10</v>
-      </c>
-      <c r="F153" s="5">
-        <v>10</v>
-      </c>
-      <c r="G153" s="5">
-        <f t="shared" ref="G153:G161" si="66">E153+J153</f>
-        <v>80</v>
-      </c>
-      <c r="H153" s="5">
-        <f t="shared" ref="H153:H157" si="67">F153+20</f>
-        <v>30</v>
-      </c>
-      <c r="J153">
-        <v>70</v>
-      </c>
-      <c r="N153" t="str">
-        <f>CONCATENATE(L2,"(",B153,",'",C153,"','",D153,"',",E153,",",F153,",",G153,",",H153,"),")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>18</v>
-      </c>
-      <c r="B154" s="5">
-        <v>1</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154" s="5">
-        <f t="shared" ref="E154:E161" si="68">G153+$K$2</f>
-        <v>100</v>
-      </c>
-      <c r="F154" s="5">
-        <v>10</v>
-      </c>
-      <c r="G154" s="5">
-        <f t="shared" si="66"/>
-        <v>250</v>
-      </c>
-      <c r="H154" s="5">
-        <v>35</v>
-      </c>
-      <c r="J154">
-        <v>150</v>
-      </c>
-      <c r="N154" t="str">
-        <f t="shared" ref="N154:N161" si="69">CONCATENATE("(",B154,",'",C154,"','",D154,"',",E154,",",F154,",",G154,",",H154,"),")</f>
-        <v>(1,'time','',100,10,250,35),</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B155" s="5">
-        <v>2</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="E155" s="5">
-        <f>G154+10</f>
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F155" s="5">
         <v>10</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="66"/>
-        <v>270</v>
+        <f t="shared" ref="G155:G163" si="68">E155+J155</f>
+        <v>80</v>
       </c>
       <c r="H155" s="5">
-        <v>35</v>
+        <f t="shared" ref="H155:H159" si="69">F155+20</f>
+        <v>30</v>
       </c>
       <c r="J155">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N155" t="str">
-        <f t="shared" si="69"/>
-        <v>(2,'text','—',260,10,270,35),</v>
+        <f>CONCATENATE(L2,"(",B155,",'",C155,"','",D155,"',",E155,",",F155,",",G155,",",H155,"),")</f>
+        <v>"(0,'text','单据日期',10,10,80,30),</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18</v>
+      </c>
       <c r="B156" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E156" s="5">
-        <f>G155+10</f>
-        <v>280</v>
+        <f t="shared" ref="E156:E163" si="70">G155+$K$2</f>
+        <v>100</v>
       </c>
       <c r="F156" s="5">
         <v>10</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="66"/>
-        <v>430</v>
+        <f t="shared" si="68"/>
+        <v>250</v>
       </c>
       <c r="H156" s="5">
         <v>35</v>
@@ -8911,158 +8903,153 @@
         <v>150</v>
       </c>
       <c r="N156" t="str">
-        <f t="shared" si="69"/>
-        <v>(3,'time','',280,10,430,35),</v>
+        <f t="shared" ref="N156:N163" si="71">CONCATENATE("(",B156,",'",C156,"','",D156,"',",E156,",",F156,",",G156,",",H156,"),")</f>
+        <v>(1,'time','',100,10,250,35),</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" ref="E157:E158" si="70">G156+10</f>
-        <v>440</v>
+        <f>G156+10</f>
+        <v>260</v>
       </c>
       <c r="F157" s="5">
         <v>10</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="66"/>
-        <v>530</v>
+        <f t="shared" si="68"/>
+        <v>270</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="67"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J157">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="N157" t="str">
-        <f t="shared" si="69"/>
-        <v>(4,'text','供应商编号',440,10,530,30),</v>
+        <f t="shared" si="71"/>
+        <v>(2,'text','—',260,10,270,35),</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="70"/>
-        <v>540</v>
+        <f>G157+10</f>
+        <v>280</v>
       </c>
       <c r="F158" s="5">
         <v>10</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="66"/>
-        <v>690</v>
+        <f t="shared" si="68"/>
+        <v>430</v>
       </c>
       <c r="H158" s="5">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J158">
         <v>150</v>
       </c>
       <c r="N158" t="str">
-        <f t="shared" si="69"/>
-        <v>(5,'combo','',540,10,690,120),</v>
+        <f t="shared" si="71"/>
+        <v>(3,'time','',280,10,430,35),</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="E159" s="5">
+        <f t="shared" ref="E159:E160" si="72">G158+10</f>
+        <v>440</v>
+      </c>
+      <c r="F159" s="5">
+        <v>10</v>
+      </c>
+      <c r="G159" s="5">
         <f t="shared" si="68"/>
-        <v>710</v>
-      </c>
-      <c r="F159" s="5">
-        <v>10</v>
-      </c>
-      <c r="G159" s="5">
-        <f t="shared" si="66"/>
-        <v>790</v>
+        <v>530</v>
       </c>
       <c r="H159" s="5">
-        <f>F159+25</f>
-        <v>35</v>
+        <f t="shared" si="69"/>
+        <v>30</v>
       </c>
       <c r="J159">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N159" t="str">
-        <f t="shared" si="69"/>
-        <v>(6,'bt','查询',710,10,790,35),</v>
+        <f t="shared" si="71"/>
+        <v>(4,'text','供应商名称',440,10,530,30),</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B160" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E160" s="5">
+        <f t="shared" si="72"/>
+        <v>540</v>
+      </c>
+      <c r="F160" s="5">
+        <v>10</v>
+      </c>
+      <c r="G160" s="5">
         <f t="shared" si="68"/>
-        <v>810</v>
-      </c>
-      <c r="F160" s="5">
-        <v>10</v>
-      </c>
-      <c r="G160" s="5">
-        <f t="shared" si="66"/>
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="H160" s="5">
-        <f>F160+25</f>
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J160">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N160" t="str">
-        <f t="shared" si="69"/>
-        <v>(7,'bt','新增',810,10,890,35),</v>
+        <f t="shared" si="71"/>
+        <v>(5,'combo','',540,10,690,120),</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E161" s="5">
+        <f t="shared" si="70"/>
+        <v>710</v>
+      </c>
+      <c r="F161" s="5">
+        <v>10</v>
+      </c>
+      <c r="G161" s="5">
         <f t="shared" si="68"/>
-        <v>910</v>
-      </c>
-      <c r="F161" s="5">
-        <v>10</v>
-      </c>
-      <c r="G161" s="5">
-        <f t="shared" si="66"/>
-        <v>990</v>
+        <v>790</v>
       </c>
       <c r="H161" s="5">
         <f>F161+25</f>
@@ -9072,500 +9059,505 @@
         <v>80</v>
       </c>
       <c r="N161" t="str">
-        <f t="shared" si="69"/>
-        <v>(8,'bt','导出',910,10,990,35),</v>
+        <f t="shared" si="71"/>
+        <v>(6,'bt','查询',710,10,790,35),</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>810</v>
       </c>
       <c r="F162" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G162" s="5">
-        <v>1120</v>
+        <f t="shared" si="68"/>
+        <v>890</v>
       </c>
       <c r="H162" s="5">
-        <v>500</v>
-      </c>
-      <c r="M162">
-        <v>11</v>
+        <f>F162+25</f>
+        <v>35</v>
+      </c>
+      <c r="J162">
+        <v>80</v>
       </c>
       <c r="N162" t="str">
-        <f>CONCATENATE("(",B162,",'",C162,"','",D162,"',",E162,",",F162,",",G162,",",H162,"),")</f>
-        <v>(9,'ls','',0,50,1120,500),</v>
+        <f t="shared" si="71"/>
+        <v>(7,'bt','新增',810,10,890,35),</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>385</v>
+        <v>170</v>
       </c>
       <c r="E163" s="5">
-        <v>10</v>
+        <f t="shared" si="70"/>
+        <v>910</v>
       </c>
       <c r="F163" s="5">
-        <v>510</v>
+        <v>10</v>
       </c>
       <c r="G163" s="5">
-        <f>E163+J163</f>
-        <v>160</v>
+        <f t="shared" si="68"/>
+        <v>990</v>
       </c>
       <c r="H163" s="5">
-        <v>530</v>
+        <f>F163+25</f>
+        <v>35</v>
       </c>
       <c r="J163">
-        <v>150</v>
-      </c>
-      <c r="M163">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N163" t="str">
-        <f>CONCATENATE("(",B163,",'",C163,"','",D163,"',",E163,",",F163,",",G163,",",H163,");",$L$2)</f>
-        <v>(10,'text','金额总计：',10,510,160,530);"</v>
+        <f t="shared" si="71"/>
+        <v>(8,'bt','导出',910,10,990,35),</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B164" s="5">
+        <v>9</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0</v>
+      </c>
+      <c r="F164" s="5">
+        <v>50</v>
+      </c>
+      <c r="G164" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H164" s="5">
+        <v>500</v>
+      </c>
+      <c r="M164">
+        <v>11</v>
+      </c>
+      <c r="N164" t="str">
+        <f>CONCATENATE("(",B164,",'",C164,"','",D164,"',",E164,",",F164,",",G164,",",H164,"),")</f>
+        <v>(9,'ls','',0,50,1120,500),</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>348</v>
-      </c>
       <c r="B165" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>158</v>
+        <v>382</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="5">
+        <v>10</v>
+      </c>
+      <c r="F165" s="5">
+        <v>510</v>
+      </c>
+      <c r="G165" s="5">
+        <f>E165+J165</f>
+        <v>160</v>
+      </c>
+      <c r="H165" s="5">
+        <v>530</v>
+      </c>
+      <c r="J165">
+        <v>150</v>
+      </c>
+      <c r="M165">
+        <v>12</v>
+      </c>
+      <c r="N165" t="str">
+        <f>CONCATENATE("(",B165,",'",C165,"','",D165,"',",E165,",",F165,",",G165,",",H165,");",$L$2)</f>
+        <v>(10,'text','金额总计：',10,510,160,530);"</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" s="5">
         <v>0</v>
       </c>
-      <c r="F165" s="5">
-        <v>10</v>
-      </c>
-      <c r="G165">
-        <f t="shared" ref="G165:G168" si="71">E165+J165</f>
+      <c r="C167" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" s="5">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ref="G167:G170" si="73">E167+J167</f>
         <v>70</v>
       </c>
-      <c r="H165">
+      <c r="H167">
         <v>30</v>
       </c>
-      <c r="J165">
+      <c r="J167">
         <v>70</v>
       </c>
-      <c r="N165" t="str">
-        <f>CONCATENATE(L121,"(",B165,",'",C165,"','",D165,"',",E165,",",F165,",",G165,",",H165,"),")</f>
-        <v>"(0,'text','客户编号',0,10,70,30),</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="N167" t="str">
+        <f>CONCATENATE(L123,"(",B167,",'",C167,"','",D167,"',",E167,",",F167,",",G167,",",H167,"),")</f>
+        <v>"(0,'text','客户名称',0,10,70,30),</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>14</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B168" s="5">
         <v>1</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E166">
-        <f>G165+10</f>
+      <c r="E168">
+        <f>G167+10</f>
         <v>80</v>
       </c>
-      <c r="F166" s="5">
-        <v>10</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="71"/>
+      <c r="F168" s="5">
+        <v>10</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="73"/>
         <v>230</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H168" s="5">
         <v>120</v>
       </c>
-      <c r="J166">
+      <c r="J168">
         <v>150</v>
       </c>
-      <c r="K166">
+      <c r="K168">
         <v>20</v>
-      </c>
-      <c r="N166" t="str">
-        <f>CONCATENATE("(",B166,",'",C166,"','",D166,"',",E166,",",F166,",",G166,",",H166,"),")</f>
-        <v>(1,'combo','',80,10,230,120),</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B167" s="5">
-        <v>2</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E167">
-        <f>G166+20</f>
-        <v>250</v>
-      </c>
-      <c r="F167" s="5">
-        <v>10</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="71"/>
-        <v>330</v>
-      </c>
-      <c r="H167">
-        <v>35</v>
-      </c>
-      <c r="J167">
-        <v>80</v>
-      </c>
-      <c r="N167" t="str">
-        <f>CONCATENATE("(",B167,",'",C167,"','",D167,"',",E167,",",F167,",",G167,",",H167,"),")</f>
-        <v>(2,'bt','查询',250,10,330,35),</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B168" s="5">
-        <v>3</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E168">
-        <f>G167+20</f>
-        <v>350</v>
-      </c>
-      <c r="F168" s="5">
-        <v>10</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="71"/>
-        <v>430</v>
-      </c>
-      <c r="H168">
-        <v>35</v>
-      </c>
-      <c r="J168">
-        <v>80</v>
       </c>
       <c r="N168" t="str">
         <f>CONCATENATE("(",B168,",'",C168,"','",D168,"',",E168,",",F168,",",G168,",",H168,"),")</f>
-        <v>(3,'bt','导出',350,10,430,35),</v>
+        <v>(1,'combo','',80,10,230,120),</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B169" s="5">
+        <v>2</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E169">
+        <f>G168+20</f>
+        <v>250</v>
+      </c>
+      <c r="F169" s="5">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="73"/>
+        <v>330</v>
+      </c>
+      <c r="H169">
+        <v>35</v>
+      </c>
+      <c r="J169">
+        <v>80</v>
+      </c>
+      <c r="N169" t="str">
+        <f>CONCATENATE("(",B169,",'",C169,"','",D169,"',",E169,",",F169,",",G169,",",H169,"),")</f>
+        <v>(2,'bt','查询',250,10,330,35),</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170" s="5">
+        <v>3</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E170">
+        <f>G169+20</f>
+        <v>350</v>
+      </c>
+      <c r="F170" s="5">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="73"/>
+        <v>430</v>
+      </c>
+      <c r="H170">
+        <v>35</v>
+      </c>
+      <c r="J170">
+        <v>80</v>
+      </c>
+      <c r="N170" t="str">
+        <f>CONCATENATE("(",B170,",'",C170,"','",D170,"',",E170,",",F170,",",G170,",",H170,"),")</f>
+        <v>(3,'bt','导出',350,10,430,35),</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="5">
         <v>4</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C171" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>50</v>
-      </c>
-      <c r="G169" s="5">
-        <v>1120</v>
-      </c>
-      <c r="H169" s="5">
-        <v>500</v>
-      </c>
-      <c r="N169" t="str">
-        <f>CONCATENATE("(",B169,",'",C169,"','",D169,"',",E169,",",F169,",",G169,",",H169,");",L2)</f>
-        <v>(4,'ls','',0,50,1120,500);"</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>349</v>
-      </c>
-      <c r="B171" s="5">
-        <v>0</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171" s="5">
-        <v>10</v>
-      </c>
-      <c r="G171">
-        <f t="shared" ref="G171:G174" si="72">E171+J171</f>
+      <c r="F171">
+        <v>50</v>
+      </c>
+      <c r="G171" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H171" s="5">
+        <v>500</v>
+      </c>
+      <c r="N171" t="str">
+        <f>CONCATENATE("(",B171,",'",C171,"','",D171,"',",E171,",",F171,",",G171,",",H171,");",L2)</f>
+        <v>(4,'ls','',0,50,1120,500);"</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>349</v>
+      </c>
+      <c r="B173" s="5">
+        <v>0</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" s="5">
+        <v>10</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ref="G173:G176" si="74">E173+J173</f>
         <v>90</v>
-      </c>
-      <c r="H171">
-        <v>35</v>
-      </c>
-      <c r="J171">
-        <v>90</v>
-      </c>
-      <c r="N171" t="str">
-        <f>CONCATENATE(L121,"(",B171,",'",C171,"','",D171,"',",E171,",",F171,",",G171,",",H171,"),")</f>
-        <v>"(0,'text','供应商编号',0,10,90,35),</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>14</v>
-      </c>
-      <c r="B172" s="5">
-        <v>1</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E172">
-        <f t="shared" ref="E172:E174" si="73">G171+10</f>
-        <v>100</v>
-      </c>
-      <c r="F172" s="5">
-        <v>10</v>
-      </c>
-      <c r="G172">
-        <f t="shared" si="72"/>
-        <v>250</v>
-      </c>
-      <c r="H172" s="5">
-        <v>120</v>
-      </c>
-      <c r="J172">
-        <v>150</v>
-      </c>
-      <c r="K172">
-        <v>20</v>
-      </c>
-      <c r="N172" t="str">
-        <f>CONCATENATE("(",B172,",'",C172,"','",D172,"',",E172,",",F172,",",G172,",",H172,"),")</f>
-        <v>(1,'combo','',100,10,250,120),</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B173" s="5">
-        <v>2</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E173">
-        <f>G172+20</f>
-        <v>270</v>
-      </c>
-      <c r="F173" s="5">
-        <v>10</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="72"/>
-        <v>350</v>
       </c>
       <c r="H173">
         <v>35</v>
       </c>
       <c r="J173">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N173" t="str">
-        <f t="shared" ref="N173:N174" si="74">CONCATENATE("(",B173,",'",C173,"','",D173,"',",E173,",",F173,",",G173,",",H173,"),")</f>
-        <v>(2,'bt','查询',270,10,350,35),</v>
+        <f>CONCATENATE(L123,"(",B173,",'",C173,"','",D173,"',",E173,",",F173,",",G173,",",H173,"),")</f>
+        <v>"(0,'text','供应商名称',0,10,90,35),</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>14</v>
+      </c>
       <c r="B174" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="E174">
-        <f t="shared" si="73"/>
-        <v>360</v>
+        <f t="shared" ref="E174:E176" si="75">G173+10</f>
+        <v>100</v>
       </c>
       <c r="F174" s="5">
         <v>10</v>
       </c>
       <c r="G174">
-        <f t="shared" si="72"/>
-        <v>440</v>
-      </c>
-      <c r="H174">
-        <v>35</v>
+        <f t="shared" si="74"/>
+        <v>250</v>
+      </c>
+      <c r="H174" s="5">
+        <v>120</v>
       </c>
       <c r="J174">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="K174">
+        <v>20</v>
       </c>
       <c r="N174" t="str">
-        <f t="shared" si="74"/>
-        <v>(3,'bt','导出',360,10,440,35),</v>
+        <f>CONCATENATE("(",B174,",'",C174,"','",D174,"',",E174,",",F174,",",G174,",",H174,"),")</f>
+        <v>(1,'combo','',100,10,250,120),</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B175" s="5">
+        <v>2</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E175">
+        <f>G174+20</f>
+        <v>270</v>
+      </c>
+      <c r="F175" s="5">
+        <v>10</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="74"/>
+        <v>350</v>
+      </c>
+      <c r="H175">
+        <v>35</v>
+      </c>
+      <c r="J175">
+        <v>80</v>
+      </c>
+      <c r="N175" t="str">
+        <f t="shared" ref="N175:N176" si="76">CONCATENATE("(",B175,",'",C175,"','",D175,"',",E175,",",F175,",",G175,",",H175,"),")</f>
+        <v>(2,'bt','查询',270,10,350,35),</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B176" s="5">
+        <v>3</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="75"/>
+        <v>360</v>
+      </c>
+      <c r="F176" s="5">
+        <v>10</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="74"/>
+        <v>440</v>
+      </c>
+      <c r="H176">
+        <v>35</v>
+      </c>
+      <c r="J176">
+        <v>80</v>
+      </c>
+      <c r="N176" t="str">
+        <f t="shared" si="76"/>
+        <v>(3,'bt','导出',360,10,440,35),</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B177" s="5">
         <v>4</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E175">
+      <c r="E177">
         <v>0</v>
       </c>
-      <c r="F175">
+      <c r="F177">
         <v>50</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G177" s="5">
         <v>1120</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H177" s="5">
         <v>520</v>
       </c>
-      <c r="N175" t="str">
-        <f>CONCATENATE("(",B175,",'",C175,"','",D175,"',",E175,",",F175,",",G175,",",H175,");",L2)</f>
+      <c r="N177" t="str">
+        <f>CONCATENATE("(",B177,",'",C177,"','",D177,"',",E177,",",F177,",",G177,",",H177,");",L2)</f>
         <v>(4,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>206</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B179" s="5">
         <v>0</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E177">
-        <v>10</v>
-      </c>
-      <c r="F177" s="5">
-        <v>10</v>
-      </c>
-      <c r="G177">
-        <f t="shared" ref="G177:G183" si="75">E177+J177</f>
-        <v>80</v>
-      </c>
-      <c r="H177">
-        <v>30</v>
-      </c>
-      <c r="J177">
-        <v>70</v>
-      </c>
-      <c r="N177" t="str">
-        <f>CONCATENATE(L2,"(",B177,",'",C177,"','",D177,"',",E177,",",F177,",",G177,",",H177,"),")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>19</v>
-      </c>
-      <c r="B178" s="5">
-        <v>1</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E178">
-        <f>G177+$K$184</f>
-        <v>100</v>
-      </c>
-      <c r="F178" s="5">
-        <v>10</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="75"/>
-        <v>250</v>
-      </c>
-      <c r="H178">
-        <v>35</v>
-      </c>
-      <c r="J178">
-        <v>150</v>
-      </c>
-      <c r="N178" t="str">
-        <f t="shared" ref="N178:N183" si="76">CONCATENATE("(",B178,",'",C178,"','",D178,"',",E178,",",F178,",",G178,",",H178,"),")</f>
-        <v>(1,'time','',100,10,250,35),</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B179" s="5">
-        <v>2</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="E179">
-        <f>G178+10</f>
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F179" s="5">
         <v>10</v>
       </c>
       <c r="G179">
-        <f t="shared" si="75"/>
-        <v>270</v>
+        <f t="shared" ref="G179:G185" si="77">E179+J179</f>
+        <v>80</v>
       </c>
       <c r="H179">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J179">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N179" t="str">
-        <f t="shared" si="76"/>
-        <v>(2,'text','—',260,10,270,35),</v>
+        <f>CONCATENATE(L2,"(",B179,",'",C179,"','",D179,"',",E179,",",F179,",",G179,",",H179,"),")</f>
+        <v>"(0,'text','单据日期',10,10,80,30),</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>19</v>
+      </c>
       <c r="B180" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E180">
-        <f>G179+10</f>
-        <v>280</v>
+        <f>G179+$K$186</f>
+        <v>100</v>
       </c>
       <c r="F180" s="5">
         <v>10</v>
       </c>
       <c r="G180">
-        <f t="shared" si="75"/>
-        <v>430</v>
+        <f t="shared" si="77"/>
+        <v>250</v>
       </c>
       <c r="H180">
         <v>35</v>
@@ -9574,94 +9566,91 @@
         <v>150</v>
       </c>
       <c r="N180" t="str">
-        <f t="shared" si="76"/>
-        <v>(3,'time','',280,10,430,35),</v>
+        <f t="shared" ref="N180:N185" si="78">CONCATENATE("(",B180,",'",C180,"','",D180,"',",E180,",",F180,",",G180,",",H180,"),")</f>
+        <v>(1,'time','',100,10,250,35),</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B181" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="E181">
-        <f>G180+$K$184</f>
-        <v>450</v>
+        <f>G180+10</f>
+        <v>260</v>
       </c>
       <c r="F181" s="5">
         <v>10</v>
       </c>
       <c r="G181">
-        <f t="shared" si="75"/>
-        <v>530</v>
+        <f t="shared" si="77"/>
+        <v>270</v>
       </c>
       <c r="H181">
         <v>35</v>
       </c>
       <c r="J181">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N181" t="str">
-        <f t="shared" si="76"/>
-        <v>(4,'bt','查询',450,10,530,35),</v>
+        <f t="shared" si="78"/>
+        <v>(2,'text','—',260,10,270,35),</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B182" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E182">
-        <f>G181+$K$184</f>
-        <v>550</v>
+        <f>G181+10</f>
+        <v>280</v>
       </c>
       <c r="F182" s="5">
         <v>10</v>
       </c>
       <c r="G182">
-        <f t="shared" si="75"/>
-        <v>630</v>
+        <f t="shared" si="77"/>
+        <v>430</v>
       </c>
       <c r="H182">
         <v>35</v>
       </c>
       <c r="J182">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N182" t="str">
-        <f t="shared" si="76"/>
-        <v>(5,'bt','新增',550,10,630,35),</v>
+        <f t="shared" si="78"/>
+        <v>(3,'time','',280,10,430,35),</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B183" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E183">
-        <f>G182+$K$184</f>
-        <v>650</v>
+        <f>G182+$K$186</f>
+        <v>450</v>
       </c>
       <c r="F183" s="5">
         <v>10</v>
       </c>
       <c r="G183">
-        <f t="shared" si="75"/>
-        <v>730</v>
+        <f t="shared" si="77"/>
+        <v>530</v>
       </c>
       <c r="H183">
         <v>35</v>
@@ -9670,186 +9659,189 @@
         <v>80</v>
       </c>
       <c r="N183" t="str">
-        <f t="shared" si="76"/>
-        <v>(6,'bt','导出',650,10,730,35),</v>
+        <f t="shared" si="78"/>
+        <v>(4,'bt','查询',450,10,530,35),</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B184" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E184" s="5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E184">
+        <f>G183+$K$186</f>
+        <v>550</v>
       </c>
       <c r="F184" s="5">
-        <v>50</v>
-      </c>
-      <c r="G184" s="5">
-        <v>1120</v>
-      </c>
-      <c r="H184" s="5">
-        <v>500</v>
-      </c>
-      <c r="K184">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="77"/>
+        <v>630</v>
+      </c>
+      <c r="H184">
+        <v>35</v>
+      </c>
+      <c r="J184">
+        <v>80</v>
       </c>
       <c r="N184" t="str">
-        <f>CONCATENATE("(",B184,",'",C184,"','",D184,"',",E184,",",F184,",",G184,",",H184,"),")</f>
-        <v>(7,'ls','',0,50,1120,500),</v>
+        <f t="shared" si="78"/>
+        <v>(5,'bt','新增',550,10,630,35),</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B185" s="5">
+        <v>6</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185">
+        <f>G184+$K$186</f>
+        <v>650</v>
+      </c>
+      <c r="F185" s="5">
+        <v>10</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="77"/>
+        <v>730</v>
+      </c>
+      <c r="H185">
+        <v>35</v>
+      </c>
+      <c r="J185">
+        <v>80</v>
+      </c>
+      <c r="N185" t="str">
+        <f t="shared" si="78"/>
+        <v>(6,'bt','导出',650,10,730,35),</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B186" s="5">
+        <v>7</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <v>50</v>
+      </c>
+      <c r="G186" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H186" s="5">
+        <v>500</v>
+      </c>
+      <c r="K186">
+        <v>20</v>
+      </c>
+      <c r="N186" t="str">
+        <f>CONCATENATE("(",B186,",'",C186,"','",D186,"',",E186,",",F186,",",G186,",",H186,"),")</f>
+        <v>(7,'ls','',0,50,1120,500),</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B187" s="5">
         <v>8</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E185" s="5">
-        <v>10</v>
-      </c>
-      <c r="F185" s="5">
+      <c r="C187" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E187" s="5">
+        <v>10</v>
+      </c>
+      <c r="F187" s="5">
         <v>510</v>
       </c>
-      <c r="G185" s="5">
-        <f>E185+J185</f>
+      <c r="G187" s="5">
+        <f>E187+J187</f>
         <v>160</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H187" s="5">
         <v>530</v>
       </c>
-      <c r="J185" s="5">
+      <c r="J187" s="5">
         <v>150</v>
       </c>
-      <c r="N185" t="str">
-        <f>CONCATENATE("(",B185,",'",C185,"','",D185,"',",E185,",",F185,",",G185,",",H185,");",L2)</f>
+      <c r="N187" t="str">
+        <f>CONCATENATE("(",B187,",'",C187,"','",D187,"',",E187,",",F187,",",G187,",",H187,");",L2)</f>
         <v>(8,'text','金额总计：',10,510,160,530);"</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>207</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B189" s="5">
         <v>0</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E187">
-        <v>10</v>
-      </c>
-      <c r="F187" s="5">
-        <v>10</v>
-      </c>
-      <c r="G187">
-        <f t="shared" ref="G187:G193" si="77">E187+J187</f>
-        <v>80</v>
-      </c>
-      <c r="H187">
-        <v>30</v>
-      </c>
-      <c r="J187">
-        <v>70</v>
-      </c>
-      <c r="N187" t="str">
-        <f>CONCATENATE(L2,"(",B187,",'",C187,"','",D187,"',",E187,",",F187,",",G187,",",H187,"),")</f>
-        <v>"(0,'text','单据日期',10,10,80,30),</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>20</v>
-      </c>
-      <c r="B188" s="5">
-        <v>1</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E188">
-        <f>G187+$K$184</f>
-        <v>100</v>
-      </c>
-      <c r="F188" s="5">
-        <v>10</v>
-      </c>
-      <c r="G188">
-        <f t="shared" si="77"/>
-        <v>250</v>
-      </c>
-      <c r="H188">
-        <v>35</v>
-      </c>
-      <c r="J188">
-        <v>150</v>
-      </c>
-      <c r="N188" t="str">
-        <f t="shared" ref="N188:N193" si="78">CONCATENATE("(",B188,",'",C188,"','",D188,"',",E188,",",F188,",",G188,",",H188,"),")</f>
-        <v>(1,'time','',100,10,250,35),</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B189" s="5">
-        <v>2</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="E189">
-        <f>G188+10</f>
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F189" s="5">
         <v>10</v>
       </c>
       <c r="G189">
-        <f t="shared" si="77"/>
-        <v>270</v>
+        <f t="shared" ref="G189:G195" si="79">E189+J189</f>
+        <v>80</v>
       </c>
       <c r="H189">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J189">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N189" t="str">
-        <f t="shared" si="78"/>
-        <v>(2,'text','—',260,10,270,35),</v>
+        <f>CONCATENATE(L2,"(",B189,",'",C189,"','",D189,"',",E189,",",F189,",",G189,",",H189,"),")</f>
+        <v>"(0,'text','单据日期',10,10,80,30),</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>20</v>
+      </c>
       <c r="B190" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E190">
-        <f>G189+10</f>
-        <v>280</v>
+        <f>G189+$K$186</f>
+        <v>100</v>
       </c>
       <c r="F190" s="5">
         <v>10</v>
       </c>
       <c r="G190">
-        <f t="shared" si="77"/>
-        <v>430</v>
+        <f t="shared" si="79"/>
+        <v>250</v>
       </c>
       <c r="H190">
         <v>35</v>
@@ -9858,94 +9850,91 @@
         <v>150</v>
       </c>
       <c r="N190" t="str">
-        <f t="shared" si="78"/>
-        <v>(3,'time','',280,10,430,35),</v>
+        <f t="shared" ref="N190:N195" si="80">CONCATENATE("(",B190,",'",C190,"','",D190,"',",E190,",",F190,",",G190,",",H190,"),")</f>
+        <v>(1,'time','',100,10,250,35),</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B191" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="E191">
-        <f>G190+$K$184</f>
-        <v>450</v>
+        <f>G190+10</f>
+        <v>260</v>
       </c>
       <c r="F191" s="5">
         <v>10</v>
       </c>
       <c r="G191">
-        <f t="shared" si="77"/>
-        <v>530</v>
+        <f t="shared" si="79"/>
+        <v>270</v>
       </c>
       <c r="H191">
         <v>35</v>
       </c>
       <c r="J191">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N191" t="str">
-        <f t="shared" si="78"/>
-        <v>(4,'bt','查询',450,10,530,35),</v>
+        <f t="shared" si="80"/>
+        <v>(2,'text','—',260,10,270,35),</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B192" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E192">
-        <f>G191+$K$184</f>
-        <v>550</v>
+        <f>G191+10</f>
+        <v>280</v>
       </c>
       <c r="F192" s="5">
         <v>10</v>
       </c>
       <c r="G192">
-        <f t="shared" si="77"/>
-        <v>630</v>
+        <f t="shared" si="79"/>
+        <v>430</v>
       </c>
       <c r="H192">
         <v>35</v>
       </c>
       <c r="J192">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N192" t="str">
-        <f t="shared" si="78"/>
-        <v>(5,'bt','新增',550,10,630,35),</v>
+        <f t="shared" si="80"/>
+        <v>(3,'time','',280,10,430,35),</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E193">
-        <f>G192+$K$184</f>
-        <v>650</v>
+        <f>G192+$K$186</f>
+        <v>450</v>
       </c>
       <c r="F193" s="5">
         <v>10</v>
       </c>
       <c r="G193">
-        <f t="shared" si="77"/>
-        <v>730</v>
+        <f t="shared" si="79"/>
+        <v>530</v>
       </c>
       <c r="H193">
         <v>35</v>
@@ -9954,186 +9943,189 @@
         <v>80</v>
       </c>
       <c r="N193" t="str">
-        <f t="shared" si="78"/>
-        <v>(6,'bt','导出',650,10,730,35),</v>
+        <f t="shared" si="80"/>
+        <v>(4,'bt','查询',450,10,530,35),</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E194" s="5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E194">
+        <f>G193+$K$186</f>
+        <v>550</v>
       </c>
       <c r="F194" s="5">
-        <v>50</v>
-      </c>
-      <c r="G194" s="5">
-        <v>1120</v>
-      </c>
-      <c r="H194" s="5">
-        <v>500</v>
-      </c>
-      <c r="K194">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="79"/>
+        <v>630</v>
+      </c>
+      <c r="H194">
+        <v>35</v>
+      </c>
+      <c r="J194">
+        <v>80</v>
       </c>
       <c r="N194" t="str">
-        <f>CONCATENATE("(",B194,",'",C194,"','",D194,"',",E194,",",F194,",",G194,",",H194,"),")</f>
-        <v>(7,'ls','',0,50,1120,500),</v>
+        <f t="shared" si="80"/>
+        <v>(5,'bt','新增',550,10,630,35),</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" s="5">
+        <v>6</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E195">
+        <f>G194+$K$186</f>
+        <v>650</v>
+      </c>
+      <c r="F195" s="5">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="79"/>
+        <v>730</v>
+      </c>
+      <c r="H195">
+        <v>35</v>
+      </c>
+      <c r="J195">
+        <v>80</v>
+      </c>
+      <c r="N195" t="str">
+        <f t="shared" si="80"/>
+        <v>(6,'bt','导出',650,10,730,35),</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B196" s="5">
+        <v>7</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0</v>
+      </c>
+      <c r="F196" s="5">
+        <v>50</v>
+      </c>
+      <c r="G196" s="5">
+        <v>1120</v>
+      </c>
+      <c r="H196" s="5">
+        <v>500</v>
+      </c>
+      <c r="K196">
+        <v>20</v>
+      </c>
+      <c r="N196" t="str">
+        <f>CONCATENATE("(",B196,",'",C196,"','",D196,"',",E196,",",F196,",",G196,",",H196,"),")</f>
+        <v>(7,'ls','',0,50,1120,500),</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B197" s="5">
         <v>8</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E195" s="5">
-        <v>10</v>
-      </c>
-      <c r="F195" s="5">
+      <c r="C197" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E197" s="5">
+        <v>10</v>
+      </c>
+      <c r="F197" s="5">
         <v>510</v>
       </c>
-      <c r="G195" s="5">
-        <f>E195+J195</f>
+      <c r="G197" s="5">
+        <f>E197+J197</f>
         <v>160</v>
       </c>
-      <c r="H195" s="5">
+      <c r="H197" s="5">
         <v>530</v>
       </c>
-      <c r="J195" s="5">
+      <c r="J197" s="5">
         <v>150</v>
       </c>
-      <c r="N195" t="str">
-        <f>CONCATENATE("(",B195,",'",C195,"','",D195,"',",E195,",",F195,",",G195,",",H195,");",L2)</f>
+      <c r="N197" t="str">
+        <f>CONCATENATE("(",B197,",'",C197,"','",D197,"',",E197,",",F197,",",G197,",",H197,");",L2)</f>
         <v>(8,'text','金额总计：',10,510,160,530);"</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>223</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B199" s="5">
         <v>0</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197" s="5">
-        <v>10</v>
-      </c>
-      <c r="G197">
-        <f t="shared" ref="G197:G205" si="79">E197+J197</f>
-        <v>30</v>
-      </c>
-      <c r="H197">
-        <v>30</v>
-      </c>
-      <c r="J197">
-        <v>30</v>
-      </c>
-      <c r="K197">
-        <v>20</v>
-      </c>
-      <c r="N197" t="str">
-        <f>CONCATENATE(L2,"(",B197,",'",C197,"','",D197,"',",E197,",",F197,",",G197,",",H197,"),")</f>
-        <v>"(0,'text','日期',0,10,30,30),</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>22</v>
-      </c>
-      <c r="B198" s="5">
-        <v>1</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E198">
-        <f>G197+$K$207</f>
-        <v>50</v>
-      </c>
-      <c r="F198" s="5">
-        <v>10</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="79"/>
-        <v>200</v>
-      </c>
-      <c r="H198">
-        <v>35</v>
-      </c>
-      <c r="J198">
-        <v>150</v>
-      </c>
-      <c r="N198" t="str">
-        <f t="shared" ref="N198:N205" si="80">CONCATENATE("(",B198,",'",C198,"','",D198,"',",E198,",",F198,",",G198,",",H198,"),")</f>
-        <v>(1,'time','',50,10,200,35),</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B199" s="5">
-        <v>2</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E199">
-        <f>G198+10</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F199" s="5">
         <v>10</v>
       </c>
       <c r="G199">
-        <f t="shared" si="79"/>
-        <v>220</v>
+        <f t="shared" ref="G199:G207" si="81">E199+J199</f>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J199">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="K199">
+        <v>20</v>
       </c>
       <c r="N199" t="str">
-        <f t="shared" si="80"/>
-        <v>(2,'text','—',210,10,220,35),</v>
+        <f>CONCATENATE(L2,"(",B199,",'",C199,"','",D199,"',",E199,",",F199,",",G199,",",H199,"),")</f>
+        <v>"(0,'text','日期',0,10,30,30),</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>22</v>
+      </c>
       <c r="B200" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E200">
-        <f>G199+10</f>
-        <v>230</v>
+        <f>G199+$K$209</f>
+        <v>50</v>
       </c>
       <c r="F200" s="5">
         <v>10</v>
       </c>
       <c r="G200">
-        <f t="shared" si="79"/>
-        <v>380</v>
+        <f t="shared" si="81"/>
+        <v>200</v>
       </c>
       <c r="H200">
         <v>35</v>
@@ -10142,94 +10134,91 @@
         <v>150</v>
       </c>
       <c r="N200" t="str">
-        <f t="shared" si="80"/>
-        <v>(3,'time','',230,10,380,35),</v>
+        <f t="shared" ref="N200:N207" si="82">CONCATENATE("(",B200,",'",C200,"','",D200,"',",E200,",",F200,",",G200,",",H200,"),")</f>
+        <v>(1,'time','',50,10,200,35),</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B201" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="E201">
-        <f t="shared" ref="E201:E204" si="81">G200+10</f>
-        <v>390</v>
+        <f>G200+10</f>
+        <v>210</v>
       </c>
       <c r="F201" s="5">
         <v>10</v>
       </c>
       <c r="G201">
-        <f t="shared" si="79"/>
-        <v>460</v>
+        <f t="shared" si="81"/>
+        <v>220</v>
       </c>
       <c r="H201">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J201">
-        <v>70</v>
-      </c>
-      <c r="K201">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N201" t="str">
-        <f t="shared" ref="N201:N202" si="82">CONCATENATE("(",B201,",'",C201,"','",D201,"',",E201,",",F201,",",G201,",",H201,"),")</f>
-        <v>(4,'text','员工名称',390,10,460,30),</v>
+        <f t="shared" si="82"/>
+        <v>(2,'text','—',210,10,220,35),</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B202" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E202">
+        <f>G201+10</f>
+        <v>230</v>
+      </c>
+      <c r="F202" s="5">
+        <v>10</v>
+      </c>
+      <c r="G202">
         <f t="shared" si="81"/>
-        <v>470</v>
-      </c>
-      <c r="F202" s="5">
-        <v>10</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="79"/>
-        <v>620</v>
-      </c>
-      <c r="H202" s="5">
-        <v>120</v>
+        <v>380</v>
+      </c>
+      <c r="H202">
+        <v>35</v>
       </c>
       <c r="J202">
         <v>150</v>
       </c>
       <c r="N202" t="str">
         <f t="shared" si="82"/>
-        <v>(5,'combo','',470,10,620,120),</v>
+        <v>(3,'time','',230,10,380,35),</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E203">
+        <f t="shared" ref="E203:E206" si="83">G202+10</f>
+        <v>390</v>
+      </c>
+      <c r="F203" s="5">
+        <v>10</v>
+      </c>
+      <c r="G203">
         <f t="shared" si="81"/>
-        <v>630</v>
-      </c>
-      <c r="F203" s="5">
-        <v>10</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="79"/>
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="H203">
         <v>30</v>
@@ -10237,28 +10226,31 @@
       <c r="J203">
         <v>70</v>
       </c>
+      <c r="K203">
+        <v>20</v>
+      </c>
       <c r="N203" t="str">
-        <f t="shared" si="80"/>
-        <v>(6,'text','操作',630,10,700,30),</v>
+        <f t="shared" ref="N203:N204" si="84">CONCATENATE("(",B203,",'",C203,"','",D203,"',",E203,",",F203,",",G203,",",H203,"),")</f>
+        <v>(4,'text','员工名称',390,10,460,30),</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B204" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E204">
+        <f t="shared" si="83"/>
+        <v>470</v>
+      </c>
+      <c r="F204" s="5">
+        <v>10</v>
+      </c>
+      <c r="G204">
         <f t="shared" si="81"/>
-        <v>710</v>
-      </c>
-      <c r="F204" s="5">
-        <v>10</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="79"/>
-        <v>860</v>
+        <v>620</v>
       </c>
       <c r="H204" s="5">
         <v>120</v>
@@ -10267,68 +10259,129 @@
         <v>150</v>
       </c>
       <c r="N204" t="str">
-        <f t="shared" si="80"/>
-        <v>(7,'combo','',710,10,860,120),</v>
+        <f t="shared" si="84"/>
+        <v>(5,'combo','',470,10,620,120),</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B205" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>168</v>
+        <v>387</v>
       </c>
       <c r="E205">
-        <f>G204+$K$207</f>
-        <v>880</v>
+        <f t="shared" si="83"/>
+        <v>630</v>
       </c>
       <c r="F205" s="5">
         <v>10</v>
       </c>
       <c r="G205">
-        <f t="shared" si="79"/>
-        <v>960</v>
+        <f t="shared" si="81"/>
+        <v>700</v>
       </c>
       <c r="H205">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J205">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N205" t="str">
-        <f t="shared" si="80"/>
-        <v>(8,'bt','查询',880,10,960,35),</v>
+        <f t="shared" si="82"/>
+        <v>(6,'text','操作',630,10,700,30),</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" s="5">
+        <v>7</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="83"/>
+        <v>710</v>
+      </c>
+      <c r="F206" s="5">
+        <v>10</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="81"/>
+        <v>860</v>
+      </c>
+      <c r="H206" s="5">
+        <v>120</v>
+      </c>
+      <c r="J206">
+        <v>150</v>
+      </c>
+      <c r="N206" t="str">
+        <f t="shared" si="82"/>
+        <v>(7,'combo','',710,10,860,120),</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B207" s="5">
+        <v>8</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E207">
+        <f>G206+$K$209</f>
+        <v>880</v>
+      </c>
+      <c r="F207" s="5">
+        <v>10</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="81"/>
+        <v>960</v>
+      </c>
+      <c r="H207">
+        <v>35</v>
+      </c>
+      <c r="J207">
+        <v>80</v>
+      </c>
+      <c r="N207" t="str">
+        <f t="shared" si="82"/>
+        <v>(8,'bt','查询',880,10,960,35),</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B208" s="5">
         <v>9</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C208" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E206">
+      <c r="E208">
         <v>0</v>
       </c>
-      <c r="F206" s="5">
+      <c r="F208" s="5">
         <v>50</v>
       </c>
-      <c r="G206" s="5">
+      <c r="G208" s="5">
         <v>1120</v>
       </c>
-      <c r="H206" s="5">
+      <c r="H208" s="5">
         <v>520</v>
       </c>
-      <c r="N206" t="str">
-        <f>CONCATENATE("(",B206,",'",C206,"','",D206,"',",E206,",",F206,",",G206,",",H206,");",L2)</f>
+      <c r="N208" t="str">
+        <f>CONCATENATE("(",B208,",'",C208,"','",D208,"',",E208,",",F208,",",G208,",",H208,");",L2)</f>
         <v>(9,'ls','',0,50,1120,520);"</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K207">
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K209">
         <v>20</v>
       </c>
     </row>
@@ -10707,7 +10760,7 @@
         <v>158</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="4"/>
@@ -24535,7 +24588,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="6"/>
@@ -24567,7 +24620,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="6"/>
@@ -24720,22 +24773,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -24743,17 +24796,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -24812,12 +24865,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
